--- a/Dataset/Folds/Fold_2/Excel/44.xlsx
+++ b/Dataset/Folds/Fold_2/Excel/44.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10616" uniqueCount="1661">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12008" uniqueCount="1857">
   <si>
     <t>Doi</t>
   </si>
@@ -5829,6 +5829,726 @@
   </si>
   <si>
     <t>[Alexis K.%Okoh%alexis.okoh@rwjbh.org%0,                            Christoph%Sossou%NULL%0,                            Christoph%Sossou%NULL%0,                            Neha S.%Dangayach%NULL%0,                            Sherin%Meledathu%NULL%0,                            Oluwakemi%Phillips%NULL%0,                            Corinne%Raczek%NULL%0,                            Michael%Patti%NULL%0,                            Nathan%Kang%NULL%0,                            Sameer A.%Hirji%NULL%0,                            Charles%Cathcart%NULL%0,                            Christian%Engell%NULL%0,                            Marc%Cohen%NULL%0,                            Sandhya%Nagarakanti%NULL%0,                            Eliahu%Bishburg%NULL%0,                            Harpreet S.%Grewal%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Feng%Pan%NULL%0,                             Lian%Yang%NULL%0,                             Yuncheng%Li%NULL%0,                             Bo%Liang%NULL%0,                             Lin%Li%NULL%0,                             Tianhe%Ye%NULL%0,                             Lingli%Li%NULL%0,                             Dehan%Liu%NULL%0,                             Shan%Gui%NULL%0,                             Yu%Hu%NULL%0,                             Chuansheng%Zheng%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Mario%Rivera-Izquierdo%NULL%0,                             María%del Carmen Valero-Ubierna%NULL%0,                             María%del Carmen Valero-Ubierna%NULL%0,                             Juan Luis%R-delAmo%NULL%0,                             Miguel Ángel%Fernández-García%NULL%0,                             Silvia%Martínez-Diz%NULL%0,                             Arezu%Tahery-Mahmoud%NULL%0,                             Marta%Rodríguez-Camacho%NULL%0,                             Ana Belén%Gámiz-Molina%NULL%0,                             Nicolás%Barba-Gyengo%NULL%0,                             Pablo%Gámez-Baeza%NULL%0,                             Celia%Cabrero-Rodríguez%NULL%0,                             Pedro Antonio%Guirado-Ruiz%NULL%0,                             Divina Tatiana%Martín-Romero%NULL%0,                             Antonio Jesús%Láinez-Ramos-Bossini%NULL%0,                             María Rosa%Sánchez-Pérez%NULL%0,                             José%Mancera-Romero%NULL%0,                             Miguel%García-Martín%NULL%0,                             Luis Miguel%Martín-delosReyes%NULL%0,                             Virginia%Martínez-Ruiz%NULL%0,                             Virginia%Martínez-Ruiz%NULL%0,                             Pablo%Lardelli-Claret%NULL%0,                             Eladio%Jiménez-Mejías%NULL%0,                             Muhammad%Adrish%NULL%0,                             Muhammad%Adrish%NULL%0,                             NULL%NULL%NULL%0,                             NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Qiurong%Ruan%NULL%0,                             Kun%Yang%NULL%0,                             Kun%Yang%NULL%0,                             Wenxia%Wang%NULL%0,                             Wenxia%Wang%NULL%0,                             Lingyu%Jiang%NULL%0,                             Lingyu%Jiang%NULL%0,                             Jianxin%Song%songsingsjx@sina.com%0,                             Jianxin%Song%songsingsjx@sina.com%0]</t>
+  </si>
+  <si>
+    <t>[Grace%Salacup%salacupg@einstein.edu%0,                             Kevin Bryan%Lo%NULL%0,                             Kevin Bryan%Lo%NULL%0,                             Fahad%Gul%NULL%0,                             Eric%Peterson%NULL%0,                             Robert%De Joy%NULL%0,                             Ruchika%Bhargav%NULL%0,                             Jerald%Pelayo%NULL%0,                             Jeri%Albano%NULL%0,                             Zurab%Azmaiparashvili%NULL%0,                             Sadia%Benzaquen%NULL%0,                             Gabriel%Patarroyo‐Aponte%NULL%0,                             Janani%Rangaswami%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yufeng%Shang%NULL%0,                             Tao%Liu%NULL%0,                             Yongchang%Wei%NULL%0,                             Jingfeng%Li%NULL%0,                             Liang%Shao%NULL%0,                             Minghui%Liu%NULL%0,                             Yongxi%Zhang%NULL%0,                             Zhigang%Zhao%NULL%0,                             Haibo%Xu%NULL%0,                             Zhiyong%Peng%NULL%0,                             Fuling%Zhou%zhoufuling@whu.edu.cn%0,                             Xinghuan%Wang%wangxinghuan@whu.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Shaobo%Shi%NULL%0,                             Mu%Qin%qinmuae@163.com%0,                             Yuli%Cai%NULL%0,                             Tao%Liu%NULL%0,                             Bo%Shen%NULL%0,                             Fan%Yang%NULL%0,                             Sheng%Cao%NULL%0,                             Xu%Liu%NULL%0,                             Xu%Liu%NULL%0,                             Yaozu%Xiang%NULL%0,                             Qinyan%Zhao%NULL%0,                             He%Huang%huanghe1977@whu.edu.cn%0,                             Bo%Yang%yybb112@whu.edu.cn%0,                             Congxin%Huang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Rita de Cássia Menezes%Soares%NULL%0,                             Larissa Rodrigues%Mattos%NULL%0,                             Letícia Martins%Raposo%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Haiying%Sun%NULL%0,                             Ruoqi%Ning%NULL%0,                             Yu%Tao%NULL%0,                             Chong%Yu%NULL%0,                             Xiaoyan%Deng%NULL%0,                             Caili%Zhao%NULL%0,                             Silu%Meng%NULL%0,                             Fangxu%Tang%89650793@qq.com%0,                             Dong%Xu%89650793@qq.com%0,                             Dong%Xu%89650793@qq.com%0]</t>
+  </si>
+  <si>
+    <t>[Kun%Wang%NULL%0,                             Peiyuan%Zuo%NULL%0,                             Yuwei%Liu%NULL%0,                             Meng%Zhang%NULL%0,                             Xiaofang%Zhao%NULL%0,                             Songpu%Xie%NULL%0,                             Hao%Zhang%NULL%0,                             Xinglin%Chen%NULL%0,                             Chengyun%Liu%chengyunliu@hust.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Bo%XU%NULL%0,                             Cun-yu%FAN%NULL%0,                             An-lu%WANG%NULL%0,                             Yi-long%ZOU%NULL%0,                             Yi-han%YU%NULL%0,                             Cong%HE%NULL%0,                             Wen-guang%XIA%NULL%0,                             Ji-xian%ZHANG%NULL%0,                             Qing%MIAO%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xisheng%Yan%NULL%0,                             Fen%Li%NULL%0,                             Xiao%Wang%NULL%0,                             Jie%Yan%NULL%0,                             Fen%Zhu%NULL%0,                             Shifan%Tang%NULL%0,                             Yingzhong%Deng%NULL%0,                             Hua%Wang%NULL%0,                             Rui%Chen%NULL%0,                             Zhili%Yu%NULL%0,                             Yaping%Li%NULL%0,                             Jingzhou%Shang%NULL%0,                             Lingjun%Zeng%NULL%0,                             Jie%Zhao%NULL%0,                             Chaokun%Guan%NULL%0,                             Qiaomei%Liu%NULL%0,                             Haifeng%Chen%NULL%0,                             Wei%Gong%NULL%0,                             Xin%Huang%NULL%0,                             Yu‐Jiao%Zhang%NULL%0,                             Jianguang%Liu%NULL%0,                             Xiaoyan%Dong%NULL%0,                             Wen%Zheng%zhengwen12@mails.jlu.edu.cn%0,                             Shaoping%Nie%spnie@126.com%0,                             Dongsheng%Li%dongshengli196809@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Qing%Yang%NULL%0,                             Ying%Zhou%NULL%0,                             Xinrong%Wang%NULL%0,                             Shan%Gao%NULL%0,                             Yang%Xiao%NULL%0,                             Weiming%Zhang%NULL%0,                             Yi%Hu%huyizxyy@163.com%0,                             Yafei%Wang%wyf_527@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Xiaobo%Yang%NULL%0,                             Qingyu%Yang%NULL%0,                             Yaxin%Wang%NULL%0,                             Yongran%Wu%NULL%0,                             Jiqian%Xu%NULL%0,                             Yuan%Yu%NULL%0,                             You%Shang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Wenjing%Ye%yewenjing@xinhuamed.com.cn%0,                             Guoxi%Chen%4799082@qq.com%0,                             Xiaopan%Li%xiaopanli0224@126.com%0,                             Xing%Lan%474137452@qq.com%0,                             Chen%Ji%c.ji.3@warwick.ac.uk%0,                             Min%Hou%min-hou710@hotmail.com%0,                             Di%Zhang%zhangdizhangdi1234@163.com%0,                             Guangwang%Zeng%785663609@qq.com%0,                             Yaling%Wang%953822402@qq.com%0,                             Cheng%Xu%xucheng112358@126.com%0,                             Weiwei%Lu%luweiwei100@126.com%0,                             Ruolin%Cui%crlqwerty@163.com%0,                             Yuyang%Cai%caiyuyang@sjtu.edu.cn%0,                             Hai%Huang%1220775601@qq.com%0,                             Ling%Yang%yangling01@xinhuamed.com.cn%0]</t>
+  </si>
+  <si>
+    <t>[Caizheng%Yu%NULL%0,                             Qing%Lei%NULL%0,                             Wenkai%Li%NULL%0,                             Xiong%Wang%NULL%0,                             Wei%Liu%NULL%0,                             Xionglin%Fan%NULL%0,                             Wengang%Li%228907211@qq.com%0]</t>
+  </si>
+  <si>
+    <t>[Fei%Zhou%NULL%0,                             Ting%Yu%NULL%0,                             Ronghui%Du%NULL%0,                             Guohui%Fan%NULL%0,                             Ying%Liu%NULL%0,                             Zhibo%Liu%NULL%0,                             Jie%Xiang%NULL%0,                             Yeming%Wang%NULL%0,                             Bin%Song%NULL%0,                             Xiaoying%Gu%NULL%0,                             Lulu%Guan%NULL%0,                             Yuan%Wei%NULL%0,                             Hui%Li%NULL%0,                             Xudong%Wu%NULL%0,                             Jiuyang%Xu%NULL%0,                             Shengjin%Tu%NULL%0,                             Yi%Zhang%NULL%0,                             Hua%Chen%NULL%0,                             Bin%Cao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Moran%Amit%NULL%0,                             Alex%Sorkin%NULL%0,                             Jacob%Chen%NULL%0,                             Barak%Cohen%NULL%0,                             Barak%Cohen%NULL%0,                             Dana%Karol%NULL%0,                             Dana%Karol%NULL%0,                             Avishai M%Tsur%NULL%0,                             Shaul%Lev%NULL%0,                             Shaul%Lev%NULL%0,                             Tal%Rozenblat%NULL%0,                             Ayana%Dvir%NULL%0,                             Ayana%Dvir%NULL%0,                             Geva%Landau%NULL%0,                             Lidar%Fridrich%NULL%0,                             Lidar%Fridrich%NULL%0,                             Elon%Glassberg%NULL%0,                             Shani%Kesari%NULL%0,                             Sigal%Sviri%NULL%0,                             Ram%Gelman%NULL%0,                             Asaf%Miller%NULL%0,                             Danny%Epstein%NULL%0,                             Ronny%Ben-Avi%NULL%0,                             Ronny%Ben-Avi%NULL%0,                             Moshe%Matan%NULL%0,                             Daniel J.%Jakobson%NULL%0,                             Daniel J.%Jakobson%NULL%0,                             Tarif%Bader%NULL%0,                             Tarif%Bader%NULL%0,                             David%Dahan%NULL%0,                             David%Dahan%NULL%0,                             Daniel A.%King%NULL%0,                             Anat%Ben-Ari%NULL%0,                             Arie%Soroksky%NULL%0,                             Alon%Bar%NULL%0,                             Alon%Bar%NULL%0,                             Noam%Fink%NULL%0,                             Pierre%Singer%NULL%0,                             Avi%Benov%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Alexander%Muacevic%NULL%0,                             John R%Adler%NULL%0,                             Muhammad Sohaib%Asghar%NULL%0,                             Muhammad Sohaib%Asghar%NULL%0,                             Syed Jawad%Haider Kazmi%NULL%0,                             Noman%Ahmed Khan%NULL%0,                             Mohammed%Akram%NULL%0,                             Salman%Ahmed Khan%NULL%0,                             Uzma%Rasheed%NULL%0,                             Maira%Hassan%NULL%0,                             Gul Muhammad%Memon%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Pedro%Baqui%NULL%0,                             Ioana%Bica%NULL%0,                             Valerio%Marra%marra@cosmo-ufes.org%0,                             Ari%Ercole%NULL%0,                             Mihaela%van der Schaar%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Andrea%Borghesi%NULL%0,                             Angelo%Zigliani%NULL%0,                             Salvatore%Golemi%NULL%0,                             Nicola%Carapella%NULL%0,                             Patrizia%Maculotti%NULL%0,                             Davide%Farina%NULL%0,                             Roberto%Maroldi%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Alberto M.%Borobia%NULL%0,                             Antonio J.%Carcas%NULL%0,                             Antonio J.%Carcas%NULL%0,                             Francisco%Arnalich%NULL%0,                             Rodolfo%Álvarez-Sala%NULL%0,                             Rodolfo%Álvarez-Sala%NULL%0,                             Jaime%Monserrat-Villatoro%NULL%0,                             Manuel%Quintana%NULL%0,                             Juan Carlos%Figueira%NULL%0,                             Rosario M.%Torres Santos-Olmo%NULL%0,                             Julio%García-Rodríguez%NULL%0,                             Julio%García-Rodríguez%NULL%0,                             Alberto%Martín-Vega%NULL%0,                             Antonio%Buño%NULL%0,                             Elena%Ramírez%NULL%0,                             Gonzalo%Martínez-Alés%NULL%0,                             Gonzalo%Martínez-Alés%NULL%0,                             Nicolás%García-Arenzana%NULL%0,                             M. Concepción%Núñez%NULL%0,                             M. Concepción%Núñez%NULL%0,                             Milagros%Martí-de-Gracia%NULL%0,                             Francisco%Moreno Ramos%NULL%0,                             Francisco%Reinoso-Barbero%NULL%0,                             Alejandro%Martin-Quiros%NULL%0,                             Angélica%Rivera Núñez%NULL%0,                             Jesús%Mingorance%NULL%0,                             Carlos J.%Carpio Segura%NULL%0,                             Carlos J.%Carpio Segura%NULL%0,                             Daniel%Prieto Arribas%NULL%0,                             Esther%Rey Cuevas%NULL%0,                             Concepción%Prados Sánchez%NULL%0,                             Juan J.%Rios%NULL%0,                             Miguel A.%Hernán%NULL%0,                             Jesús%Frías%NULL%0,                             José R.%Arribas%NULL%0,                             NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Simon E.%Brill%simon.brill@nhs.net%0,                             Hannah C.%Jarvis%NULL%0,                             Hannah C.%Jarvis%NULL%0,                             Ezgi%Ozcan%NULL%0,                             Thomas L. P.%Burns%NULL%0,                             Rabia A.%Warraich%NULL%0,                             Lisa J.%Amani%NULL%0,                             Amina%Jaffer%NULL%0,                             Stephanie%Paget%NULL%0,                             Anand%Sivaramakrishnan%NULL%0,                             Dean D.%Creer%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jianlei%Cao%NULL%0,                             Wen-Jun%Tu%tuwenjun@irm-cams.ac.cn%0,                             Wenlin%Cheng%NULL%0,                             Lei%Yu%NULL%0,                             Ya-Kun%Liu%NULL%0,                             Xiaoyong%Hu%NULL%0,                             Qiang%Liu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[B.%Carter%NULL%0,                             J.T.%Collins%NULL%0,                             F.%Barlow-Pay%NULL%0,                             F.%Rickard%NULL%0,                             E.%Bruce%NULL%0,                             A.%Verduri%NULL%0,                             T.J.%Quinn%NULL%0,                             E.%Mitchell%NULL%0,                             A.%Price%NULL%0,                             A.%Vilches-Moraga%NULL%0,                             M.J.%Stechman%NULL%0,                             R.%Short%NULL%0,                             A.%Einarsson%NULL%0,                             P.%Braude%NULL%0,                             S.%Moug%NULL%0,                             P.K.%Myint%NULL%0,                             J.%Hewitt%NULL%0,                             L.%Pearce%NULL%0,                             K.%McCarthy%NULL%0,                             C.%Davey%NULL%0,                             S.%Jones%NULL%0,                             K.%Lunstone%NULL%0,                             A.%Cavenagh%NULL%0,                             C.%Silver%NULL%0,                             T.%Telford%NULL%0,                             R.%Simmons%NULL%0,                             M.%Holloway%NULL%0,                             J.%Hesford%NULL%0,                             T.%El Jichi Mutasem%NULL%0,                             S.%Singh%NULL%0,                             D.%Paxton%NULL%0,                             W.%Harris%NULL%0,                             N.%Galbraith%NULL%0,                             E.%Bhatti%NULL%0,                             J.%Edwards%NULL%0,                             S.%Duffy%NULL%0,                             J.%Kelly%NULL%0,                             C.%Murphy%NULL%0,                             C.%Bisset%NULL%0,                             R.%Alexander%NULL%0,                             M.%Garcia%NULL%0,                             S.%Sangani%NULL%0,                             T.%Kneen%NULL%0,                             T.%Lee%NULL%0,                             A.%McGovern%NULL%0,                             G.%Guaraldi%NULL%0,                             E.%Clini%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Fuyang%Chen%NULL%0,                             Wenwu%Sun%NULL%0,                             Shengrong%Sun%NULL%0,                             Zhiyu%Li%lizhiyu@whu.edu.cn%0,                             Zhong%Wang%zhongwangchn@whu.edu.cn%0,                             Li%Yu%yuliwhzxyy@163.com%0,                             Li%Yu%yuliwhzxyy@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Ruchong%Chen%NULL%0,                             Ling%Sang%NULL%0,                             Mei%Jiang%NULL%0,                             Zhaowei%Yang%NULL%0,                             Nan%Jia%NULL%0,                             Wanyi%Fu%NULL%0,                             Jiaxing%Xie%NULL%0,                             Weijie%Guan%NULL%0,                             Wenhua%Liang%NULL%0,                             Zhengyi%Ni%NULL%0,                             Yu%Hu%NULL%0,                             Lei%Liu%NULL%0,                             Hong%Shan%NULL%0,                             Chunliang%Lei%NULL%0,                             Yixiang%Peng%NULL%0,                             Li%Wei%NULL%0,                             Yong%Liu%NULL%0,                             Yahua%Hu%NULL%0,                             Peng%Peng%NULL%0,                             Jianming%Wang%NULL%0,                             Jiyang%Liu%NULL%0,                             Zhong%Chen%NULL%0,                             Gang%Li%NULL%0,                             Zhijian%Zheng%NULL%0,                             Shaoqin%Qiu%NULL%0,                             Jie%Luo%NULL%0,                             Changjiang%Ye%NULL%0,                             Shaoyong%Zhu%NULL%0,                             Jinping%Zheng%NULL%0,                             Nuofu%Zhang%NULL%0,                             Yimin%Li%NULL%0,                             Jianxing%He%NULL%0,                             Jing%Li%NULL%0,                             Shiyue%Li%NULL%0,                             Nanshan%Zhong%NULL%0,                             NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Tao%Chen%NULL%0,                             Di%Wu%NULL%0,                             Huilong%Chen%NULL%0,                             Weiming%Yan%NULL%0,                             Danlei%Yang%NULL%0,                             Guang%Chen%NULL%0,                             Ke%Ma%NULL%0,                             Dong%Xu%NULL%0,                             Haijing%Yu%NULL%0,                             Hongwu%Wang%NULL%0,                             Tao%Wang%NULL%0,                             Wei%Guo%NULL%0,                             Jia%Chen%NULL%0,                             Chen%Ding%NULL%0,                             Xiaoping%Zhang%NULL%0,                             Jiaquan%Huang%NULL%0,                             Meifang%Han%NULL%0,                             Shusheng%Li%NULL%0,                             Xiaoping%Luo%NULL%0,                             Jianping%Zhao%NULL%0,                             Qin%Ning%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Anying%Cheng%NULL%0,                             Liu%Hu%NULL%0,                             Yiru%Wang%NULL%0,                             Luyan%Huang%NULL%0,                             Lingxi%Zhao%NULL%0,                             Congcong%Zhang%NULL%0,                             Xiyue%Liu%NULL%0,                             Ranran%Xu%NULL%0,                             Feng%Liu%NULL%0,                             Jinping%Li%NULL%0,                             Dawei%Ye%NULL%0,                             Tao%Wang%NULL%0,                             Yongman%Lv%lvyongman@126.com%0,                             Qingquan%Liu%qqliutj@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Fabio%Ciceri%ciceri.fabio@hsr.it%0,                             Antonella%Castagna%NULL%0,                             Patrizia%Rovere-Querini%NULL%0,                             Francesco%De Cobelli%NULL%0,                             Annalisa%Ruggeri%NULL%0,                             Laura%Galli%NULL%0,                             Caterina%Conte%NULL%0,                             Rebecca%De Lorenzo%NULL%0,                             Andrea%Poli%NULL%0,                             Alberto%Ambrosio%NULL%0,                             Carlo%Signorelli%NULL%0,                             Eleonora%Bossi%NULL%0,                             Maria%Fazio%NULL%0,                             Cristina%Tresoldi%NULL%0,                             Sergio%Colombo%NULL%0,                             Giacomo%Monti%NULL%0,                             Efgeny%Fominskiy%NULL%0,                             Stefano%Franchini%NULL%0,                             Marzia%Spessot%NULL%0,                             Carlo%Martinenghi%NULL%0,                             Michele%Carlucci%NULL%0,                             Luigi%Beretta%NULL%0,                             Anna Maria%Scandroglio%NULL%0,                             Massimo%Clementi%NULL%0,                             Massimo%Locatelli%NULL%0,                             Moreno%Tresoldi%NULL%0,                             Paolo%Scarpellini%NULL%0,                             Gianvito%Martino%NULL%0,                             Emanuele%Bosi%NULL%0,                             Lorenzo%Dagna%NULL%0,                             Adriano%Lazzarin%NULL%0,                             Giovanni%Landoni%NULL%0,                             Alberto%Zangrillo%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yan%Deng%NULL%0,                             Wei%Liu%NULL%0,                             Kui%Liu%NULL%0,                             Yuan-Yuan%Fang%NULL%0,                             Jin%Shang%NULL%0,                             Ling%Zhou%NULL%0,                             Ke%Wang%NULL%0,                             Fan%Leng%NULL%0,                             Shuang%Wei%NULL%0,                             Lei%Chen%NULL%0,                             Hui-Guo%Liu%NULL%0,                             Pei-Fang%Wei%NULL%0,                             Pei-Fang%Wei%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Rong-Hui%Du%NULL%0,                             Li-Rong%Liang%NULL%0,                             Cheng-Qing%Yang%NULL%0,                             Wen%Wang%NULL%0,                             Tan-Ze%Cao%NULL%0,                             Ming%Li%NULL%0,                             Guang-Yun%Guo%NULL%0,                             Juan%Du%NULL%0,                             Chun-Lan%Zheng%NULL%0,                             Qi%Zhu%NULL%0,                             Ming%Hu%NULL%0,                             Xu-Yan%Li%NULL%0,                             Peng%Peng%NULL%0,                             Huan-Zhong%Shi%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Shan%Gao%NULL%0,                             Fang%Jiang%NULL%0,                             Wei%Jin%NULL%0,                             Yuan%Shi%NULL%0,                             Leilei%Yang%NULL%0,                             Yanqiong%Xia%NULL%0,                             Linyan%Jia%NULL%0,                             Bo%Wang%NULL%0,                             Han%Lin%NULL%0,                             Yin%Cai%NULL%0,                             Zhengyuan%Xia%NULL%0,                             Jian%Peng%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Pedro David%Wendel Garcia%pedrodavid.wendelgarcia@usz.ch%0,                             Thierry%Fumeaux%thierry.fumeaux@ghol.ch%0,                             Philippe%Guerci%NULL%0,                             Dorothea Monika%Heuberger%dorotheamonika.heuberger@usz.ch%0,                             Jonathan%Montomoli%NULL%0,                             Ferran%Roche-Campo%NULL%0,                             Reto Andreas%Schuepbach%reto.schuepbach@usz.ch%0,                             Matthias Peter%Hilty%matthias.hilty@usz.ch%0,                             Mario%Alfaro Farias%NULL%0,                             Antoni%Margarit%NULL%0,                             Gerardo%Vizmanos-Lamotte%NULL%0,                             Thomas%Tschoellitsch%NULL%0,                             Jens%Meier%NULL%0,                             Francesco S.%Cardona%NULL%0,                             Josef%Skola%NULL%0,                             Lenka%Horakova%NULL%0,                             Hernan%Aguirre-Bermeo%NULL%0,                             Janina%Apolo%NULL%0,                             Emmanuel%Novy%NULL%0,                             Marie-Reine%Losser%NULL%0,                             Geoffrey%Jurkolow%NULL%0,                             Gauthier%Delahaye%NULL%0,                             Sascha%David%NULL%0,                             Tobias%Welte%NULL%0,                             Tobias%Wengenmayer%NULL%0,                             Dawid L.%Staudacher%NULL%0,                             Theodoros%Aslanidis%NULL%0,                             Barna%Babik%NULL%0,                             Anita%Korsos%NULL%0,                             Janos%Gal%NULL%0,                             Hermann%Csaba%NULL%0,                             Abele%Donati%NULL%0,                             Andrea%Carsetti%NULL%0,                             Fabrizio%Turrini%NULL%0,                             Maria Sole%Simonini%NULL%0,                             Roberto%Ceriani%NULL%0,                             Martina%Murrone%NULL%0,                             Emanuele%Rezoagli%NULL%0,                             Giovanni%Vitale%NULL%0,                             Alberto%Fogagnolo%NULL%0,                             Savino%Spadaro%NULL%0,                             Maddalena Alessandra%Wu%NULL%0,                             Chiara%Cogliati%NULL%0,                             Riccardo%Colombo%NULL%0,                             Emanuele%Catena%NULL%0,                             Francesca%Facondini%NULL%0,                             Antonella%Potalivo%NULL%0,                             Gianfilippo%Gangitano%NULL%0,                             Tiziana%Perin%NULL%0,                             Maria Grazia%Bocci%NULL%0,                             Massimo%Antonelli%NULL%0,                             Diederik%Gommers%NULL%0,                             Can%Ince%NULL%0,                             Eric%Mayor-Vázquez%NULL%0,                             Maria%Cruz%NULL%0,                             Martin%Delgado%NULL%0,                             Raquel Rodriguez%Garcia%NULL%0,                             Jorge%Gamez Zapata%NULL%0,                             Begoña%Zalba-Etayo%NULL%0,                             Herminia%Lozano-Gomez%NULL%0,                             Pedro%Castro%NULL%0,                             Adrian%Tellez%NULL%0,                             Adriana%Jacas%NULL%0,                             Guido%Muñoz%NULL%0,                             Rut%Andrea%NULL%0,                             Jose%Ortiz%NULL%0,                             Eduard%Quintana%NULL%0,                             Irene%Rovira%NULL%0,                             Enric%Reverter%NULL%0,                             Javier%Fernandez%NULL%0,                             Miquel%Ferrer%NULL%0,                             Joan R.%Badia%NULL%0,                             Arantxa%Lander Azcona%NULL%0,                             Jesus Escos%Orta%NULL%0,                             Philipp%Bühler%NULL%0,                             Silvio%Brugger%NULL%0,                             Daniel%Hofmaenner%NULL%0,                             Simone%Unseld%NULL%0,                             Frank%Ruschitzka%NULL%0,                             Mallory%Moret-Bochatay%NULL%0,                             Bernd%Yuen%NULL%0,                             Thomas%Hillermann%NULL%0,                             Hatem%Ksouri%NULL%0,                             Govind Oliver%Sridharan%NULL%0,                             Anette%Ristic%NULL%0,                             Michael%Sepulcri%NULL%0,                             Miodrag%Filipovic%NULL%0,                             Urs%Pietsch%NULL%0,                             Petra%Salomon%NULL%0,                             Iris%Drvaric%NULL%0,                             Peter%Schott%NULL%0,                             Severin%Urech%NULL%0,                             Adriana%Lambert%NULL%0,                             Lukas%Merki%NULL%0,                             Marcus%Laube%NULL%0,                             Frank%Hillgaertner%NULL%0,                             Marianne%Sieber%NULL%0,                             Alexander%Dullenkopf%NULL%0,                             Lina%Petersen%NULL%0,                             Serge%Grazioli%NULL%0,                             Peter C.%Rimensberger%NULL%0,                             Isabelle%Fleisch%NULL%0,                             Jerome%Lavanchy%NULL%0,                             Katharina%Marquardt%NULL%0,                             Karim%Shaikh%NULL%0,                             Hermann%Redecker%NULL%0,                             Michael%Stephan%NULL%0,                             Jan%Brem%NULL%0,                             Bjarte%Rogdo%NULL%0,                             Andre%Birkenmaier%NULL%0,                             Friederike%Meyer zu Bentrup%NULL%0,                             Patricia%Fodor%NULL%0,                             Pascal%Locher%NULL%0,                             Giovanni%Camen%NULL%0,                             Martin%Siegemund%NULL%0,                             Nuria%Zellweger%NULL%0,                             Marie-Madlen%Jeitziner%NULL%0,                             Beatrice%Jenni-Moser%NULL%0,                             Christian%Bürkle%NULL%0,                             Gian-Reto%Kleger%NULL%0,                             Marilene%Franchitti Laurent%NULL%0,                             Jean-Christophe%Laurent%NULL%0,                             Tomislav%Gaspert%NULL%0,                             Marija%Jovic%NULL%0,                             Michael%Studhalter%NULL%0,                             Christoph%Haberthuer%NULL%0,                             Roger F.%Lussman%NULL%0,                             Daniela%Selz%NULL%0,                             Didier%Naon%NULL%0,                             Romano%Mauri%NULL%0,                             Samuele%Ceruti%NULL%0,                             Julien%Marrel%NULL%0,                             Mirko%Brenni%NULL%0,                             Rolf%Ensner%NULL%0,                             Nadine%Gehring%NULL%0,                             Antje%Heise%NULL%0,                             Tobias%Huebner%NULL%0,                             Thomas A.%Neff%NULL%0,                             Sara%Cereghetti%NULL%0,                             Filippo%Boroli%NULL%0,                             Jerome%Pugin%NULL%0,                             Nandor%Marczin%NULL%0,                             Joyce%Wong%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Warren%Gavin%NULL%0,                             Elliott%Campbell%NULL%0,                             Syed-Adeel%Zaidi%NULL%0,                             Neha%Gavin%NULL%0,                             Lana%Dbeibo%NULL%0,                             Cole%Beeler%NULL%0,                             Kari%Kuebler%NULL%0,                             Ahmed%Abdel-Rahman%NULL%0,                             Mark%Luetkemeyer%NULL%0,                             Areeba%Kara%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Vijay%Gayam%vgayam@interfaithmedical.com%0,                             Muchi Ditah%Chobufo%NULL%0,                             Muchi Ditah%Chobufo%NULL%0,                             Mohamed A.%Merghani%NULL%0,                             Mohamed A.%Merghani%NULL%0,                             Shristi%Lamichhane%NULL%0,                             Pavani Reddy%Garlapati%NULL%0,                             Mark K.%Adler%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Hai%Hu%huhai@wchscu.cn%0,                             Ni%Yao%NULL%0,                             Ni%Yao%NULL%0,                             Yanru%Qiu%NULL%0,                             John H.%Burton%NULL%0,                             John H.%Burton%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jiaofeng%Huang%NULL%0,                             Aiguo%Cheng%NULL%0,                             Rahul%Kumar%NULL%0,                             Yingying%Fang%NULL%0,                             Yingying%Fang%NULL%0,                             Gongping%Chen%NULL%0,                             Yueyong%Zhu%NULL%0,                             Su%Lin%sumer5129@fjmu.edu.cn%0,                             Su%Lin%sumer5129@fjmu.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Jong-moon%Hwang%NULL%0,                             Ju-Hyun%Kim%NULL%0,                             Jin-Sung%Park%NULL%0,                             Min Cheol%Chang%wheel633@ynu.ac.kr%0,                             Donghwi%Park%bdome@hanmail.net%0]</t>
+  </si>
+  <si>
+    <t>[K.%Khalil%NULL%0,                             K.%Agbontaen%NULL%0,                             D.%McNally%NULL%0,                             A.%Love%NULL%0,                             S.%Mandalia%NULL%0,                             W.%Banya%NULL%0,                             E.%Starren%NULL%0,                             R.%Dhunnookchand%NULL%0,                             H.%Farne%NULL%0,                             R.%Morton%NULL%0,                             G.%Davies%NULL%0,                             O.%Orhan%NULL%0,                             D%Lai%NULL%0,                             M.%Nelson%NULL%0,                             P.L.%Shah%NULL%0,                             J.L.%Garner%Justin.garner@chelwest.nhs.uk%0]</t>
+  </si>
+  <si>
+    <t>[Eyal%Klang%NULL%0,                             Gassan%Kassim%NULL%0,                             Shelly%Soffer%soffer.shelly@gmail.com%0,                             Robert%Freeman%NULL%0,                             Robert%Freeman%NULL%0,                             Matthew A.%Levin%NULL%0,                             Matthew A.%Levin%NULL%0,                             David L.%Reich%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Sandeep%Krishnan%NULL%0,                             Kinjal%Patel%NULL%0,                             Ronak%Desai%NULL%0,                             Anupam%Sule%NULL%0,                             Peter%Paik%NULL%0,                             Ashley%Miller%NULL%0,                             Alicia%Barclay%NULL%0,                             Adam%Cassella%NULL%0,                             Jon%Lucaj%NULL%0,                             Yvonne%Royster%NULL%0,                             Joffer%Hakim%NULL%0,                             Zulfiqar%Ahmed%NULL%0,                             Farhad%Ghoddoussi%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Wil%Lieberman-Cribbin%NULL%0,                             Joseph%Rapp%NULL%0,                             Naomi%Alpert%NULL%0,                             Stephanie%Tuminello%NULL%0,                             Emanuela%Taioli%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Q.%Liu%NULL%0,                             N. C.%Song%NULL%0,                             Z. K.%Zheng%NULL%0,                             J. S.%Li%NULL%0,                             S. K.%Li%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Hui%Long%NULL%0,                             Lan%Nie%NULL%0,                             Xiaochen%Xiang%NULL%0,                             Huan%Li%NULL%0,                             Xiaoli%Zhang%NULL%0,                             Xiaozhi%Fu%NULL%0,                             Hongwei%Ren%NULL%0,                             Wanxin%Liu%NULL%0,                             Qiang%Wang%wangqiang@wust.edu.cn%0,                             Qingming%Wu%wuhe9224@sina.com%0,                             Qingming%Wu%wuhe9224@sina.com%0]</t>
+  </si>
+  <si>
+    <t>[Xiaomin%Luo%luoxiaomin04@163.com%0,                             Wei%Zhou%NULL%0,                             Xiaojie%Yan%NULL%0,                             Tangxi%Guo%NULL%0,                             Benchao%Wang%NULL%0,                             Hongxia%Xia%NULL%0,                             Lu%Ye%NULL%0,                             Jun%Xiong%NULL%0,                             Zongping%Jiang%NULL%0,                             Yu%Liu%NULL%0,                             Bicheng%Zhang%NULL%0,                             Weize%Yang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ying%Luo%NULL%0,                             Liyan%Mao%NULL%0,                             Xu%Yuan%NULL%0,                             Ying%Xue%NULL%0,                             Qun%Lin%NULL%0,                             Guoxing%Tang%NULL%0,                             Huijuan%Song%NULL%0,                             Feng%Wang%fengwang@tjh.tjmu.edu.cn%0,                             Ziyong%Sun%zysun@tjh.tjmu.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Ying%Luo%NULL%0,                             Ying%Xue%NULL%0,                             Liyan%Mao%NULL%0,                             Xu%Yuan%NULL%0,                             Qun%Lin%NULL%0,                             Guoxing%Tang%NULL%0,                             Huijuan%Song%NULL%0,                             Feng%Wang%NULL%0,                             Ziyong%Sun%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Chiara%Masetti%NULL%0,                             Elena%Generali%NULL%0,                             Francesca%Colapietro%NULL%0,                             Antonio%Voza%NULL%0,                             Maurizio%Cecconi%NULL%0,                             Antonio%Messina%NULL%0,                             Paolo%Omodei%NULL%0,                             Claudio%Angelini%NULL%0,                             Michele%Ciccarelli%NULL%0,                             Salvatore%Badalamenti%NULL%0,                             G. Walter%Canonica%NULL%0,                             Ana%Lleo%ana.lleo@humanitas.it%0,                             Alessio%Aghemo%NULL%0,                             Alessio%Aghemo%NULL%0,                             NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Takahisa%Mikami%NULL%0,                             Hirotaka%Miyashita%NULL%0,                             Takayuki%Yamada%NULL%0,                             Matthew%Harrington%NULL%0,                             Daniel%Steinberg%NULL%0,                             Andrew%Dunn%NULL%0,                             Evan%Siau%Evan.Siau@mountsinai.org%0]</t>
+  </si>
+  <si>
+    <t>[Alexis K.%Okoh%alexis.okoh@rwjbh.org%0,                             Christoph%Sossou%NULL%0,                             Christoph%Sossou%NULL%0,                             Neha S.%Dangayach%NULL%0,                             Sherin%Meledathu%NULL%0,                             Oluwakemi%Phillips%NULL%0,                             Corinne%Raczek%NULL%0,                             Michael%Patti%NULL%0,                             Nathan%Kang%NULL%0,                             Sameer A.%Hirji%NULL%0,                             Charles%Cathcart%NULL%0,                             Christian%Engell%NULL%0,                             Marc%Cohen%NULL%0,                             Sandhya%Nagarakanti%NULL%0,                             Eliahu%Bishburg%NULL%0,                             Harpreet S.%Grewal%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Feng%Pan%NULL%0,                              Lian%Yang%NULL%0,                              Yuncheng%Li%NULL%0,                              Bo%Liang%NULL%0,                              Lin%Li%NULL%0,                              Tianhe%Ye%NULL%0,                              Lingli%Li%NULL%0,                              Dehan%Liu%NULL%0,                              Shan%Gui%NULL%0,                              Yu%Hu%NULL%0,                              Chuansheng%Zheng%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Mario%Rivera-Izquierdo%NULL%0,                              María%del Carmen Valero-Ubierna%NULL%0,                              María%del Carmen Valero-Ubierna%NULL%0,                              Juan Luis%R-delAmo%NULL%0,                              Miguel Ángel%Fernández-García%NULL%0,                              Silvia%Martínez-Diz%NULL%0,                              Arezu%Tahery-Mahmoud%NULL%0,                              Marta%Rodríguez-Camacho%NULL%0,                              Ana Belén%Gámiz-Molina%NULL%0,                              Nicolás%Barba-Gyengo%NULL%0,                              Pablo%Gámez-Baeza%NULL%0,                              Celia%Cabrero-Rodríguez%NULL%0,                              Pedro Antonio%Guirado-Ruiz%NULL%0,                              Divina Tatiana%Martín-Romero%NULL%0,                              Antonio Jesús%Láinez-Ramos-Bossini%NULL%0,                              María Rosa%Sánchez-Pérez%NULL%0,                              José%Mancera-Romero%NULL%0,                              Miguel%García-Martín%NULL%0,                              Luis Miguel%Martín-delosReyes%NULL%0,                              Virginia%Martínez-Ruiz%NULL%0,                              Virginia%Martínez-Ruiz%NULL%0,                              Pablo%Lardelli-Claret%NULL%0,                              Eladio%Jiménez-Mejías%NULL%0,                              Muhammad%Adrish%NULL%0,                              Muhammad%Adrish%NULL%0,                              NULL%NULL%NULL%0,                              NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Qiurong%Ruan%NULL%0,                              Kun%Yang%NULL%0,                              Kun%Yang%NULL%0,                              Wenxia%Wang%NULL%0,                              Wenxia%Wang%NULL%0,                              Lingyu%Jiang%NULL%0,                              Lingyu%Jiang%NULL%0,                              Jianxin%Song%songsingsjx@sina.com%0,                              Jianxin%Song%songsingsjx@sina.com%0]</t>
+  </si>
+  <si>
+    <t>[Grace%Salacup%salacupg@einstein.edu%0,                              Kevin Bryan%Lo%NULL%0,                              Kevin Bryan%Lo%NULL%0,                              Fahad%Gul%NULL%0,                              Eric%Peterson%NULL%0,                              Robert%De Joy%NULL%0,                              Ruchika%Bhargav%NULL%0,                              Jerald%Pelayo%NULL%0,                              Jeri%Albano%NULL%0,                              Zurab%Azmaiparashvili%NULL%0,                              Sadia%Benzaquen%NULL%0,                              Gabriel%Patarroyo‐Aponte%NULL%0,                              Janani%Rangaswami%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yufeng%Shang%NULL%0,                              Tao%Liu%NULL%0,                              Yongchang%Wei%NULL%0,                              Jingfeng%Li%NULL%0,                              Liang%Shao%NULL%0,                              Minghui%Liu%NULL%0,                              Yongxi%Zhang%NULL%0,                              Zhigang%Zhao%NULL%0,                              Haibo%Xu%NULL%0,                              Zhiyong%Peng%NULL%0,                              Fuling%Zhou%zhoufuling@whu.edu.cn%0,                              Xinghuan%Wang%wangxinghuan@whu.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Shaobo%Shi%NULL%0,                              Mu%Qin%qinmuae@163.com%0,                              Yuli%Cai%NULL%0,                              Tao%Liu%NULL%0,                              Bo%Shen%NULL%0,                              Fan%Yang%NULL%0,                              Sheng%Cao%NULL%0,                              Xu%Liu%NULL%0,                              Xu%Liu%NULL%0,                              Yaozu%Xiang%NULL%0,                              Qinyan%Zhao%NULL%0,                              He%Huang%huanghe1977@whu.edu.cn%0,                              Bo%Yang%yybb112@whu.edu.cn%0,                              Congxin%Huang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Rita de Cássia Menezes%Soares%NULL%0,                              Larissa Rodrigues%Mattos%NULL%0,                              Letícia Martins%Raposo%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Haiying%Sun%NULL%0,                              Ruoqi%Ning%NULL%0,                              Yu%Tao%NULL%0,                              Chong%Yu%NULL%0,                              Xiaoyan%Deng%NULL%0,                              Caili%Zhao%NULL%0,                              Silu%Meng%NULL%0,                              Fangxu%Tang%89650793@qq.com%0,                              Dong%Xu%89650793@qq.com%0,                              Dong%Xu%89650793@qq.com%0]</t>
+  </si>
+  <si>
+    <t>[Kun%Wang%NULL%0,                              Peiyuan%Zuo%NULL%0,                              Yuwei%Liu%NULL%0,                              Meng%Zhang%NULL%0,                              Xiaofang%Zhao%NULL%0,                              Songpu%Xie%NULL%0,                              Hao%Zhang%NULL%0,                              Xinglin%Chen%NULL%0,                              Chengyun%Liu%chengyunliu@hust.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Bo%XU%NULL%0,                              Cun-yu%FAN%NULL%0,                              An-lu%WANG%NULL%0,                              Yi-long%ZOU%NULL%0,                              Yi-han%YU%NULL%0,                              Cong%HE%NULL%0,                              Wen-guang%XIA%NULL%0,                              Ji-xian%ZHANG%NULL%0,                              Qing%MIAO%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xisheng%Yan%NULL%0,                              Fen%Li%NULL%0,                              Xiao%Wang%NULL%0,                              Jie%Yan%NULL%0,                              Fen%Zhu%NULL%0,                              Shifan%Tang%NULL%0,                              Yingzhong%Deng%NULL%0,                              Hua%Wang%NULL%0,                              Rui%Chen%NULL%0,                              Zhili%Yu%NULL%0,                              Yaping%Li%NULL%0,                              Jingzhou%Shang%NULL%0,                              Lingjun%Zeng%NULL%0,                              Jie%Zhao%NULL%0,                              Chaokun%Guan%NULL%0,                              Qiaomei%Liu%NULL%0,                              Haifeng%Chen%NULL%0,                              Wei%Gong%NULL%0,                              Xin%Huang%NULL%0,                              Yu‐Jiao%Zhang%NULL%0,                              Jianguang%Liu%NULL%0,                              Xiaoyan%Dong%NULL%0,                              Wen%Zheng%zhengwen12@mails.jlu.edu.cn%0,                              Shaoping%Nie%spnie@126.com%0,                              Dongsheng%Li%dongshengli196809@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Qing%Yang%NULL%0,                              Ying%Zhou%NULL%0,                              Xinrong%Wang%NULL%0,                              Shan%Gao%NULL%0,                              Yang%Xiao%NULL%0,                              Weiming%Zhang%NULL%0,                              Yi%Hu%huyizxyy@163.com%0,                              Yafei%Wang%wyf_527@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Xiaobo%Yang%NULL%0,                              Qingyu%Yang%NULL%0,                              Yaxin%Wang%NULL%0,                              Yongran%Wu%NULL%0,                              Jiqian%Xu%NULL%0,                              Yuan%Yu%NULL%0,                              You%Shang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Wenjing%Ye%yewenjing@xinhuamed.com.cn%0,                              Guoxi%Chen%4799082@qq.com%0,                              Xiaopan%Li%xiaopanli0224@126.com%0,                              Xing%Lan%474137452@qq.com%0,                              Chen%Ji%c.ji.3@warwick.ac.uk%0,                              Min%Hou%min-hou710@hotmail.com%0,                              Di%Zhang%zhangdizhangdi1234@163.com%0,                              Guangwang%Zeng%785663609@qq.com%0,                              Yaling%Wang%953822402@qq.com%0,                              Cheng%Xu%xucheng112358@126.com%0,                              Weiwei%Lu%luweiwei100@126.com%0,                              Ruolin%Cui%crlqwerty@163.com%0,                              Yuyang%Cai%caiyuyang@sjtu.edu.cn%0,                              Hai%Huang%1220775601@qq.com%0,                              Ling%Yang%yangling01@xinhuamed.com.cn%0]</t>
+  </si>
+  <si>
+    <t>[Caizheng%Yu%NULL%0,                              Qing%Lei%NULL%0,                              Wenkai%Li%NULL%0,                              Xiong%Wang%NULL%0,                              Wei%Liu%NULL%0,                              Xionglin%Fan%NULL%0,                              Wengang%Li%228907211@qq.com%0]</t>
+  </si>
+  <si>
+    <t>[Fei%Zhou%NULL%0,                              Ting%Yu%NULL%0,                              Ronghui%Du%NULL%0,                              Guohui%Fan%NULL%0,                              Ying%Liu%NULL%0,                              Zhibo%Liu%NULL%0,                              Jie%Xiang%NULL%0,                              Yeming%Wang%NULL%0,                              Bin%Song%NULL%0,                              Xiaoying%Gu%NULL%0,                              Lulu%Guan%NULL%0,                              Yuan%Wei%NULL%0,                              Hui%Li%NULL%0,                              Xudong%Wu%NULL%0,                              Jiuyang%Xu%NULL%0,                              Shengjin%Tu%NULL%0,                              Yi%Zhang%NULL%0,                              Hua%Chen%NULL%0,                              Bin%Cao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Moran%Amit%NULL%0,                              Alex%Sorkin%NULL%0,                              Jacob%Chen%NULL%0,                              Barak%Cohen%NULL%0,                              Barak%Cohen%NULL%0,                              Dana%Karol%NULL%0,                              Dana%Karol%NULL%0,                              Avishai M%Tsur%NULL%0,                              Shaul%Lev%NULL%0,                              Shaul%Lev%NULL%0,                              Tal%Rozenblat%NULL%0,                              Ayana%Dvir%NULL%0,                              Ayana%Dvir%NULL%0,                              Geva%Landau%NULL%0,                              Lidar%Fridrich%NULL%0,                              Lidar%Fridrich%NULL%0,                              Elon%Glassberg%NULL%0,                              Shani%Kesari%NULL%0,                              Sigal%Sviri%NULL%0,                              Ram%Gelman%NULL%0,                              Asaf%Miller%NULL%0,                              Danny%Epstein%NULL%0,                              Ronny%Ben-Avi%NULL%0,                              Ronny%Ben-Avi%NULL%0,                              Moshe%Matan%NULL%0,                              Daniel J.%Jakobson%NULL%0,                              Daniel J.%Jakobson%NULL%0,                              Tarif%Bader%NULL%0,                              Tarif%Bader%NULL%0,                              David%Dahan%NULL%0,                              David%Dahan%NULL%0,                              Daniel A.%King%NULL%0,                              Anat%Ben-Ari%NULL%0,                              Arie%Soroksky%NULL%0,                              Alon%Bar%NULL%0,                              Alon%Bar%NULL%0,                              Noam%Fink%NULL%0,                              Pierre%Singer%NULL%0,                              Avi%Benov%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Alexander%Muacevic%NULL%0,                              John R%Adler%NULL%0,                              Muhammad Sohaib%Asghar%NULL%0,                              Muhammad Sohaib%Asghar%NULL%0,                              Syed Jawad%Haider Kazmi%NULL%0,                              Noman%Ahmed Khan%NULL%0,                              Mohammed%Akram%NULL%0,                              Salman%Ahmed Khan%NULL%0,                              Uzma%Rasheed%NULL%0,                              Maira%Hassan%NULL%0,                              Gul Muhammad%Memon%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Pedro%Baqui%NULL%0,                              Ioana%Bica%NULL%0,                              Valerio%Marra%marra@cosmo-ufes.org%0,                              Ari%Ercole%NULL%0,                              Mihaela%van der Schaar%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Andrea%Borghesi%NULL%0,                              Angelo%Zigliani%NULL%0,                              Salvatore%Golemi%NULL%0,                              Nicola%Carapella%NULL%0,                              Patrizia%Maculotti%NULL%0,                              Davide%Farina%NULL%0,                              Roberto%Maroldi%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Alberto M.%Borobia%NULL%0,                              Antonio J.%Carcas%NULL%0,                              Antonio J.%Carcas%NULL%0,                              Francisco%Arnalich%NULL%0,                              Rodolfo%Álvarez-Sala%NULL%0,                              Rodolfo%Álvarez-Sala%NULL%0,                              Jaime%Monserrat-Villatoro%NULL%0,                              Manuel%Quintana%NULL%0,                              Juan Carlos%Figueira%NULL%0,                              Rosario M.%Torres Santos-Olmo%NULL%0,                              Julio%García-Rodríguez%NULL%0,                              Julio%García-Rodríguez%NULL%0,                              Alberto%Martín-Vega%NULL%0,                              Antonio%Buño%NULL%0,                              Elena%Ramírez%NULL%0,                              Gonzalo%Martínez-Alés%NULL%0,                              Gonzalo%Martínez-Alés%NULL%0,                              Nicolás%García-Arenzana%NULL%0,                              M. Concepción%Núñez%NULL%0,                              M. Concepción%Núñez%NULL%0,                              Milagros%Martí-de-Gracia%NULL%0,                              Francisco%Moreno Ramos%NULL%0,                              Francisco%Reinoso-Barbero%NULL%0,                              Alejandro%Martin-Quiros%NULL%0,                              Angélica%Rivera Núñez%NULL%0,                              Jesús%Mingorance%NULL%0,                              Carlos J.%Carpio Segura%NULL%0,                              Carlos J.%Carpio Segura%NULL%0,                              Daniel%Prieto Arribas%NULL%0,                              Esther%Rey Cuevas%NULL%0,                              Concepción%Prados Sánchez%NULL%0,                              Juan J.%Rios%NULL%0,                              Miguel A.%Hernán%NULL%0,                              Jesús%Frías%NULL%0,                              José R.%Arribas%NULL%0,                              NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Simon E.%Brill%simon.brill@nhs.net%0,                              Hannah C.%Jarvis%NULL%0,                              Hannah C.%Jarvis%NULL%0,                              Ezgi%Ozcan%NULL%0,                              Thomas L. P.%Burns%NULL%0,                              Rabia A.%Warraich%NULL%0,                              Lisa J.%Amani%NULL%0,                              Amina%Jaffer%NULL%0,                              Stephanie%Paget%NULL%0,                              Anand%Sivaramakrishnan%NULL%0,                              Dean D.%Creer%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jianlei%Cao%NULL%0,                              Wen-Jun%Tu%tuwenjun@irm-cams.ac.cn%0,                              Wenlin%Cheng%NULL%0,                              Lei%Yu%NULL%0,                              Ya-Kun%Liu%NULL%0,                              Xiaoyong%Hu%NULL%0,                              Qiang%Liu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[B.%Carter%NULL%0,                              J.T.%Collins%NULL%0,                              F.%Barlow-Pay%NULL%0,                              F.%Rickard%NULL%0,                              E.%Bruce%NULL%0,                              A.%Verduri%NULL%0,                              T.J.%Quinn%NULL%0,                              E.%Mitchell%NULL%0,                              A.%Price%NULL%0,                              A.%Vilches-Moraga%NULL%0,                              M.J.%Stechman%NULL%0,                              R.%Short%NULL%0,                              A.%Einarsson%NULL%0,                              P.%Braude%NULL%0,                              S.%Moug%NULL%0,                              P.K.%Myint%NULL%0,                              J.%Hewitt%NULL%0,                              L.%Pearce%NULL%0,                              K.%McCarthy%NULL%0,                              C.%Davey%NULL%0,                              S.%Jones%NULL%0,                              K.%Lunstone%NULL%0,                              A.%Cavenagh%NULL%0,                              C.%Silver%NULL%0,                              T.%Telford%NULL%0,                              R.%Simmons%NULL%0,                              M.%Holloway%NULL%0,                              J.%Hesford%NULL%0,                              T.%El Jichi Mutasem%NULL%0,                              S.%Singh%NULL%0,                              D.%Paxton%NULL%0,                              W.%Harris%NULL%0,                              N.%Galbraith%NULL%0,                              E.%Bhatti%NULL%0,                              J.%Edwards%NULL%0,                              S.%Duffy%NULL%0,                              J.%Kelly%NULL%0,                              C.%Murphy%NULL%0,                              C.%Bisset%NULL%0,                              R.%Alexander%NULL%0,                              M.%Garcia%NULL%0,                              S.%Sangani%NULL%0,                              T.%Kneen%NULL%0,                              T.%Lee%NULL%0,                              A.%McGovern%NULL%0,                              G.%Guaraldi%NULL%0,                              E.%Clini%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Fuyang%Chen%NULL%0,                              Wenwu%Sun%NULL%0,                              Shengrong%Sun%NULL%0,                              Zhiyu%Li%lizhiyu@whu.edu.cn%0,                              Zhong%Wang%zhongwangchn@whu.edu.cn%0,                              Li%Yu%yuliwhzxyy@163.com%0,                              Li%Yu%yuliwhzxyy@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Ruchong%Chen%NULL%0,                              Ling%Sang%NULL%0,                              Mei%Jiang%NULL%0,                              Zhaowei%Yang%NULL%0,                              Nan%Jia%NULL%0,                              Wanyi%Fu%NULL%0,                              Jiaxing%Xie%NULL%0,                              Weijie%Guan%NULL%0,                              Wenhua%Liang%NULL%0,                              Zhengyi%Ni%NULL%0,                              Yu%Hu%NULL%0,                              Lei%Liu%NULL%0,                              Hong%Shan%NULL%0,                              Chunliang%Lei%NULL%0,                              Yixiang%Peng%NULL%0,                              Li%Wei%NULL%0,                              Yong%Liu%NULL%0,                              Yahua%Hu%NULL%0,                              Peng%Peng%NULL%0,                              Jianming%Wang%NULL%0,                              Jiyang%Liu%NULL%0,                              Zhong%Chen%NULL%0,                              Gang%Li%NULL%0,                              Zhijian%Zheng%NULL%0,                              Shaoqin%Qiu%NULL%0,                              Jie%Luo%NULL%0,                              Changjiang%Ye%NULL%0,                              Shaoyong%Zhu%NULL%0,                              Jinping%Zheng%NULL%0,                              Nuofu%Zhang%NULL%0,                              Yimin%Li%NULL%0,                              Jianxing%He%NULL%0,                              Jing%Li%NULL%0,                              Shiyue%Li%NULL%0,                              Nanshan%Zhong%NULL%0,                              NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Tao%Chen%NULL%0,                              Di%Wu%NULL%0,                              Huilong%Chen%NULL%0,                              Weiming%Yan%NULL%0,                              Danlei%Yang%NULL%0,                              Guang%Chen%NULL%0,                              Ke%Ma%NULL%0,                              Dong%Xu%NULL%0,                              Haijing%Yu%NULL%0,                              Hongwu%Wang%NULL%0,                              Tao%Wang%NULL%0,                              Wei%Guo%NULL%0,                              Jia%Chen%NULL%0,                              Chen%Ding%NULL%0,                              Xiaoping%Zhang%NULL%0,                              Jiaquan%Huang%NULL%0,                              Meifang%Han%NULL%0,                              Shusheng%Li%NULL%0,                              Xiaoping%Luo%NULL%0,                              Jianping%Zhao%NULL%0,                              Qin%Ning%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Anying%Cheng%NULL%0,                              Liu%Hu%NULL%0,                              Yiru%Wang%NULL%0,                              Luyan%Huang%NULL%0,                              Lingxi%Zhao%NULL%0,                              Congcong%Zhang%NULL%0,                              Xiyue%Liu%NULL%0,                              Ranran%Xu%NULL%0,                              Feng%Liu%NULL%0,                              Jinping%Li%NULL%0,                              Dawei%Ye%NULL%0,                              Tao%Wang%NULL%0,                              Yongman%Lv%lvyongman@126.com%0,                              Qingquan%Liu%qqliutj@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Fabio%Ciceri%ciceri.fabio@hsr.it%0,                              Antonella%Castagna%NULL%0,                              Patrizia%Rovere-Querini%NULL%0,                              Francesco%De Cobelli%NULL%0,                              Annalisa%Ruggeri%NULL%0,                              Laura%Galli%NULL%0,                              Caterina%Conte%NULL%0,                              Rebecca%De Lorenzo%NULL%0,                              Andrea%Poli%NULL%0,                              Alberto%Ambrosio%NULL%0,                              Carlo%Signorelli%NULL%0,                              Eleonora%Bossi%NULL%0,                              Maria%Fazio%NULL%0,                              Cristina%Tresoldi%NULL%0,                              Sergio%Colombo%NULL%0,                              Giacomo%Monti%NULL%0,                              Efgeny%Fominskiy%NULL%0,                              Stefano%Franchini%NULL%0,                              Marzia%Spessot%NULL%0,                              Carlo%Martinenghi%NULL%0,                              Michele%Carlucci%NULL%0,                              Luigi%Beretta%NULL%0,                              Anna Maria%Scandroglio%NULL%0,                              Massimo%Clementi%NULL%0,                              Massimo%Locatelli%NULL%0,                              Moreno%Tresoldi%NULL%0,                              Paolo%Scarpellini%NULL%0,                              Gianvito%Martino%NULL%0,                              Emanuele%Bosi%NULL%0,                              Lorenzo%Dagna%NULL%0,                              Adriano%Lazzarin%NULL%0,                              Giovanni%Landoni%NULL%0,                              Alberto%Zangrillo%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yan%Deng%NULL%0,                              Wei%Liu%NULL%0,                              Kui%Liu%NULL%0,                              Yuan-Yuan%Fang%NULL%0,                              Jin%Shang%NULL%0,                              Ling%Zhou%NULL%0,                              Ke%Wang%NULL%0,                              Fan%Leng%NULL%0,                              Shuang%Wei%NULL%0,                              Lei%Chen%NULL%0,                              Hui-Guo%Liu%NULL%0,                              Pei-Fang%Wei%NULL%0,                              Pei-Fang%Wei%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Rong-Hui%Du%NULL%0,                              Li-Rong%Liang%NULL%0,                              Cheng-Qing%Yang%NULL%0,                              Wen%Wang%NULL%0,                              Tan-Ze%Cao%NULL%0,                              Ming%Li%NULL%0,                              Guang-Yun%Guo%NULL%0,                              Juan%Du%NULL%0,                              Chun-Lan%Zheng%NULL%0,                              Qi%Zhu%NULL%0,                              Ming%Hu%NULL%0,                              Xu-Yan%Li%NULL%0,                              Peng%Peng%NULL%0,                              Huan-Zhong%Shi%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Shan%Gao%NULL%0,                              Fang%Jiang%NULL%0,                              Wei%Jin%NULL%0,                              Yuan%Shi%NULL%0,                              Leilei%Yang%NULL%0,                              Yanqiong%Xia%NULL%0,                              Linyan%Jia%NULL%0,                              Bo%Wang%NULL%0,                              Han%Lin%NULL%0,                              Yin%Cai%NULL%0,                              Zhengyuan%Xia%NULL%0,                              Jian%Peng%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Pedro David%Wendel Garcia%pedrodavid.wendelgarcia@usz.ch%0,                              Thierry%Fumeaux%thierry.fumeaux@ghol.ch%0,                              Philippe%Guerci%NULL%0,                              Dorothea Monika%Heuberger%dorotheamonika.heuberger@usz.ch%0,                              Jonathan%Montomoli%NULL%0,                              Ferran%Roche-Campo%NULL%0,                              Reto Andreas%Schuepbach%reto.schuepbach@usz.ch%0,                              Matthias Peter%Hilty%matthias.hilty@usz.ch%0,                              Mario%Alfaro Farias%NULL%0,                              Antoni%Margarit%NULL%0,                              Gerardo%Vizmanos-Lamotte%NULL%0,                              Thomas%Tschoellitsch%NULL%0,                              Jens%Meier%NULL%0,                              Francesco S.%Cardona%NULL%0,                              Josef%Skola%NULL%0,                              Lenka%Horakova%NULL%0,                              Hernan%Aguirre-Bermeo%NULL%0,                              Janina%Apolo%NULL%0,                              Emmanuel%Novy%NULL%0,                              Marie-Reine%Losser%NULL%0,                              Geoffrey%Jurkolow%NULL%0,                              Gauthier%Delahaye%NULL%0,                              Sascha%David%NULL%0,                              Tobias%Welte%NULL%0,                              Tobias%Wengenmayer%NULL%0,                              Dawid L.%Staudacher%NULL%0,                              Theodoros%Aslanidis%NULL%0,                              Barna%Babik%NULL%0,                              Anita%Korsos%NULL%0,                              Janos%Gal%NULL%0,                              Hermann%Csaba%NULL%0,                              Abele%Donati%NULL%0,                              Andrea%Carsetti%NULL%0,                              Fabrizio%Turrini%NULL%0,                              Maria Sole%Simonini%NULL%0,                              Roberto%Ceriani%NULL%0,                              Martina%Murrone%NULL%0,                              Emanuele%Rezoagli%NULL%0,                              Giovanni%Vitale%NULL%0,                              Alberto%Fogagnolo%NULL%0,                              Savino%Spadaro%NULL%0,                              Maddalena Alessandra%Wu%NULL%0,                              Chiara%Cogliati%NULL%0,                              Riccardo%Colombo%NULL%0,                              Emanuele%Catena%NULL%0,                              Francesca%Facondini%NULL%0,                              Antonella%Potalivo%NULL%0,                              Gianfilippo%Gangitano%NULL%0,                              Tiziana%Perin%NULL%0,                              Maria Grazia%Bocci%NULL%0,                              Massimo%Antonelli%NULL%0,                              Diederik%Gommers%NULL%0,                              Can%Ince%NULL%0,                              Eric%Mayor-Vázquez%NULL%0,                              Maria%Cruz%NULL%0,                              Martin%Delgado%NULL%0,                              Raquel Rodriguez%Garcia%NULL%0,                              Jorge%Gamez Zapata%NULL%0,                              Begoña%Zalba-Etayo%NULL%0,                              Herminia%Lozano-Gomez%NULL%0,                              Pedro%Castro%NULL%0,                              Adrian%Tellez%NULL%0,                              Adriana%Jacas%NULL%0,                              Guido%Muñoz%NULL%0,                              Rut%Andrea%NULL%0,                              Jose%Ortiz%NULL%0,                              Eduard%Quintana%NULL%0,                              Irene%Rovira%NULL%0,                              Enric%Reverter%NULL%0,                              Javier%Fernandez%NULL%0,                              Miquel%Ferrer%NULL%0,                              Joan R.%Badia%NULL%0,                              Arantxa%Lander Azcona%NULL%0,                              Jesus Escos%Orta%NULL%0,                              Philipp%Bühler%NULL%0,                              Silvio%Brugger%NULL%0,                              Daniel%Hofmaenner%NULL%0,                              Simone%Unseld%NULL%0,                              Frank%Ruschitzka%NULL%0,                              Mallory%Moret-Bochatay%NULL%0,                              Bernd%Yuen%NULL%0,                              Thomas%Hillermann%NULL%0,                              Hatem%Ksouri%NULL%0,                              Govind Oliver%Sridharan%NULL%0,                              Anette%Ristic%NULL%0,                              Michael%Sepulcri%NULL%0,                              Miodrag%Filipovic%NULL%0,                              Urs%Pietsch%NULL%0,                              Petra%Salomon%NULL%0,                              Iris%Drvaric%NULL%0,                              Peter%Schott%NULL%0,                              Severin%Urech%NULL%0,                              Adriana%Lambert%NULL%0,                              Lukas%Merki%NULL%0,                              Marcus%Laube%NULL%0,                              Frank%Hillgaertner%NULL%0,                              Marianne%Sieber%NULL%0,                              Alexander%Dullenkopf%NULL%0,                              Lina%Petersen%NULL%0,                              Serge%Grazioli%NULL%0,                              Peter C.%Rimensberger%NULL%0,                              Isabelle%Fleisch%NULL%0,                              Jerome%Lavanchy%NULL%0,                              Katharina%Marquardt%NULL%0,                              Karim%Shaikh%NULL%0,                              Hermann%Redecker%NULL%0,                              Michael%Stephan%NULL%0,                              Jan%Brem%NULL%0,                              Bjarte%Rogdo%NULL%0,                              Andre%Birkenmaier%NULL%0,                              Friederike%Meyer zu Bentrup%NULL%0,                              Patricia%Fodor%NULL%0,                              Pascal%Locher%NULL%0,                              Giovanni%Camen%NULL%0,                              Martin%Siegemund%NULL%0,                              Nuria%Zellweger%NULL%0,                              Marie-Madlen%Jeitziner%NULL%0,                              Beatrice%Jenni-Moser%NULL%0,                              Christian%Bürkle%NULL%0,                              Gian-Reto%Kleger%NULL%0,                              Marilene%Franchitti Laurent%NULL%0,                              Jean-Christophe%Laurent%NULL%0,                              Tomislav%Gaspert%NULL%0,                              Marija%Jovic%NULL%0,                              Michael%Studhalter%NULL%0,                              Christoph%Haberthuer%NULL%0,                              Roger F.%Lussman%NULL%0,                              Daniela%Selz%NULL%0,                              Didier%Naon%NULL%0,                              Romano%Mauri%NULL%0,                              Samuele%Ceruti%NULL%0,                              Julien%Marrel%NULL%0,                              Mirko%Brenni%NULL%0,                              Rolf%Ensner%NULL%0,                              Nadine%Gehring%NULL%0,                              Antje%Heise%NULL%0,                              Tobias%Huebner%NULL%0,                              Thomas A.%Neff%NULL%0,                              Sara%Cereghetti%NULL%0,                              Filippo%Boroli%NULL%0,                              Jerome%Pugin%NULL%0,                              Nandor%Marczin%NULL%0,                              Joyce%Wong%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Warren%Gavin%NULL%0,                              Elliott%Campbell%NULL%0,                              Syed-Adeel%Zaidi%NULL%0,                              Neha%Gavin%NULL%0,                              Lana%Dbeibo%NULL%0,                              Cole%Beeler%NULL%0,                              Kari%Kuebler%NULL%0,                              Ahmed%Abdel-Rahman%NULL%0,                              Mark%Luetkemeyer%NULL%0,                              Areeba%Kara%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Vijay%Gayam%vgayam@interfaithmedical.com%0,                              Muchi Ditah%Chobufo%NULL%0,                              Muchi Ditah%Chobufo%NULL%0,                              Mohamed A.%Merghani%NULL%0,                              Mohamed A.%Merghani%NULL%0,                              Shristi%Lamichhane%NULL%0,                              Pavani Reddy%Garlapati%NULL%0,                              Mark K.%Adler%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Hai%Hu%huhai@wchscu.cn%0,                              Ni%Yao%NULL%0,                              Ni%Yao%NULL%0,                              Yanru%Qiu%NULL%0,                              John H.%Burton%NULL%0,                              John H.%Burton%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jiaofeng%Huang%NULL%0,                              Aiguo%Cheng%NULL%0,                              Rahul%Kumar%NULL%0,                              Yingying%Fang%NULL%0,                              Yingying%Fang%NULL%0,                              Gongping%Chen%NULL%0,                              Yueyong%Zhu%NULL%0,                              Su%Lin%sumer5129@fjmu.edu.cn%0,                              Su%Lin%sumer5129@fjmu.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Jong-moon%Hwang%NULL%0,                              Ju-Hyun%Kim%NULL%0,                              Jin-Sung%Park%NULL%0,                              Min Cheol%Chang%wheel633@ynu.ac.kr%0,                              Donghwi%Park%bdome@hanmail.net%0]</t>
+  </si>
+  <si>
+    <t>[K.%Khalil%NULL%0,                              K.%Agbontaen%NULL%0,                              D.%McNally%NULL%0,                              A.%Love%NULL%0,                              S.%Mandalia%NULL%0,                              W.%Banya%NULL%0,                              E.%Starren%NULL%0,                              R.%Dhunnookchand%NULL%0,                              H.%Farne%NULL%0,                              R.%Morton%NULL%0,                              G.%Davies%NULL%0,                              O.%Orhan%NULL%0,                              D%Lai%NULL%0,                              M.%Nelson%NULL%0,                              P.L.%Shah%NULL%0,                              J.L.%Garner%Justin.garner@chelwest.nhs.uk%0]</t>
+  </si>
+  <si>
+    <t>[Eyal%Klang%NULL%0,                              Gassan%Kassim%NULL%0,                              Shelly%Soffer%soffer.shelly@gmail.com%0,                              Robert%Freeman%NULL%0,                              Robert%Freeman%NULL%0,                              Matthew A.%Levin%NULL%0,                              Matthew A.%Levin%NULL%0,                              David L.%Reich%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Sandeep%Krishnan%NULL%0,                              Kinjal%Patel%NULL%0,                              Ronak%Desai%NULL%0,                              Anupam%Sule%NULL%0,                              Peter%Paik%NULL%0,                              Ashley%Miller%NULL%0,                              Alicia%Barclay%NULL%0,                              Adam%Cassella%NULL%0,                              Jon%Lucaj%NULL%0,                              Yvonne%Royster%NULL%0,                              Joffer%Hakim%NULL%0,                              Zulfiqar%Ahmed%NULL%0,                              Farhad%Ghoddoussi%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Wil%Lieberman-Cribbin%NULL%0,                              Joseph%Rapp%NULL%0,                              Naomi%Alpert%NULL%0,                              Stephanie%Tuminello%NULL%0,                              Emanuela%Taioli%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Q.%Liu%NULL%0,                              N. C.%Song%NULL%0,                              Z. K.%Zheng%NULL%0,                              J. S.%Li%NULL%0,                              S. K.%Li%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Hui%Long%NULL%0,                              Lan%Nie%NULL%0,                              Xiaochen%Xiang%NULL%0,                              Huan%Li%NULL%0,                              Xiaoli%Zhang%NULL%0,                              Xiaozhi%Fu%NULL%0,                              Hongwei%Ren%NULL%0,                              Wanxin%Liu%NULL%0,                              Qiang%Wang%wangqiang@wust.edu.cn%0,                              Qingming%Wu%wuhe9224@sina.com%0,                              Qingming%Wu%wuhe9224@sina.com%0]</t>
+  </si>
+  <si>
+    <t>[Xiaomin%Luo%luoxiaomin04@163.com%0,                              Wei%Zhou%NULL%0,                              Xiaojie%Yan%NULL%0,                              Tangxi%Guo%NULL%0,                              Benchao%Wang%NULL%0,                              Hongxia%Xia%NULL%0,                              Lu%Ye%NULL%0,                              Jun%Xiong%NULL%0,                              Zongping%Jiang%NULL%0,                              Yu%Liu%NULL%0,                              Bicheng%Zhang%NULL%0,                              Weize%Yang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ying%Luo%NULL%0,                              Liyan%Mao%NULL%0,                              Xu%Yuan%NULL%0,                              Ying%Xue%NULL%0,                              Qun%Lin%NULL%0,                              Guoxing%Tang%NULL%0,                              Huijuan%Song%NULL%0,                              Feng%Wang%fengwang@tjh.tjmu.edu.cn%0,                              Ziyong%Sun%zysun@tjh.tjmu.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Ying%Luo%NULL%0,                              Ying%Xue%NULL%0,                              Liyan%Mao%NULL%0,                              Xu%Yuan%NULL%0,                              Qun%Lin%NULL%0,                              Guoxing%Tang%NULL%0,                              Huijuan%Song%NULL%0,                              Feng%Wang%NULL%0,                              Ziyong%Sun%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Chiara%Masetti%NULL%0,                              Elena%Generali%NULL%0,                              Francesca%Colapietro%NULL%0,                              Antonio%Voza%NULL%0,                              Maurizio%Cecconi%NULL%0,                              Antonio%Messina%NULL%0,                              Paolo%Omodei%NULL%0,                              Claudio%Angelini%NULL%0,                              Michele%Ciccarelli%NULL%0,                              Salvatore%Badalamenti%NULL%0,                              G. Walter%Canonica%NULL%0,                              Ana%Lleo%ana.lleo@humanitas.it%0,                              Alessio%Aghemo%NULL%0,                              Alessio%Aghemo%NULL%0,                              NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Takahisa%Mikami%NULL%0,                              Hirotaka%Miyashita%NULL%0,                              Takayuki%Yamada%NULL%0,                              Matthew%Harrington%NULL%0,                              Daniel%Steinberg%NULL%0,                              Andrew%Dunn%NULL%0,                              Evan%Siau%Evan.Siau@mountsinai.org%0]</t>
+  </si>
+  <si>
+    <t>[Alexis K.%Okoh%alexis.okoh@rwjbh.org%0,                              Christoph%Sossou%NULL%0,                              Christoph%Sossou%NULL%0,                              Neha S.%Dangayach%NULL%0,                              Sherin%Meledathu%NULL%0,                              Oluwakemi%Phillips%NULL%0,                              Corinne%Raczek%NULL%0,                              Michael%Patti%NULL%0,                              Nathan%Kang%NULL%0,                              Sameer A.%Hirji%NULL%0,                              Charles%Cathcart%NULL%0,                              Christian%Engell%NULL%0,                              Marc%Cohen%NULL%0,                              Sandhya%Nagarakanti%NULL%0,                              Eliahu%Bishburg%NULL%0,                              Harpreet S.%Grewal%NULL%0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rationale: Up to date, the exploration of clinical features in severe COVID-19 patients were mostly from the same center in Wuhan, China.
+ The clinical data in other centers is limited.
+ This study aims to explore the feasible parameters which could be used in clinical practice to predict the prognosis in hospitalized patients with severe coronavirus disease-19 (COVID-19).
+</t>
+  </si>
+  <si>
+    <t>[Feng%Pan%NULL%0, Lian%Yang%NULL%0, Yuncheng%Li%NULL%0, Bo%Liang%NULL%0, Lin%Li%NULL%0, Tianhe%Ye%NULL%0, Lingli%Li%NULL%0, Dehan%Liu%NULL%0, Shan%Gui%NULL%0, Yu%Hu%NULL%0, Chuansheng%Zheng%NULL%0]</t>
+  </si>
+  <si>
+    <t>Ivyspring International Publisher</t>
+  </si>
+  <si>
+    <t>[Mario%Rivera-Izquierdo%NULL%0, María%del Carmen Valero-Ubierna%NULL%0, María%del Carmen Valero-Ubierna%NULL%0, Juan Luis%R-delAmo%NULL%0, Miguel Ángel%Fernández-García%NULL%0, Silvia%Martínez-Diz%NULL%0, Arezu%Tahery-Mahmoud%NULL%0, Marta%Rodríguez-Camacho%NULL%0, Ana Belén%Gámiz-Molina%NULL%0, Nicolás%Barba-Gyengo%NULL%0, Pablo%Gámez-Baeza%NULL%0, Celia%Cabrero-Rodríguez%NULL%0, Pedro Antonio%Guirado-Ruiz%NULL%0, Divina Tatiana%Martín-Romero%NULL%0, Antonio Jesús%Láinez-Ramos-Bossini%NULL%0, María Rosa%Sánchez-Pérez%NULL%0, José%Mancera-Romero%NULL%0, Miguel%García-Martín%NULL%0, Luis Miguel%Martín-delosReyes%NULL%0, Virginia%Martínez-Ruiz%NULL%0, Virginia%Martínez-Ruiz%NULL%0, Pablo%Lardelli-Claret%NULL%0, Eladio%Jiménez-Mejías%NULL%0, Muhammad%Adrish%NULL%0, Muhammad%Adrish%NULL%0, NULL%NULL%NULL%0, NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>Public Library of Science</t>
+  </si>
+  <si>
+    <t>[Qiurong%Ruan%NULL%0, Kun%Yang%NULL%0, Kun%Yang%NULL%0, Wenxia%Wang%NULL%0, Wenxia%Wang%NULL%0, Lingyu%Jiang%NULL%0, Lingyu%Jiang%NULL%0, Jianxin%Song%songsingsjx@sina.com%0, Jianxin%Song%songsingsjx@sina.com%0]</t>
+  </si>
+  <si>
+    <t>Springer Berlin Heidelberg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">There is limited information describing the characteristics and clinical outcomes of patients infected with coronavirus disease 2019 (COVID‐19) especially those in underserved urban area with minority population in the United States.
+ This is a retrospective single‐center study for patients who were admitted with COVID‐19 infection.
+ Data collection was from 1 March through 24 April 2020. Demographic, clinical, laboratory, and treatment data were presented using descriptive statistics and frequencies.
+ The χ
+2 test and multivariate logistic regression were used to determine association of risk factors and clinical outcomes.
+ A total of 242 inpatients were included with a mean age of 66 ± 14.75 (±standard deviation).
+ A total of 50% were female and 70% were African American.
+ Comorbidities included hypertension (74%), diabetes mellitus (49%), and 19% had either COPD or asthma.
+ Older age was associated with higher risk of inpatient death odds ratio (OR): 1.056 (95% confidence interval [CI]: 1.023‐1.090; P = .
+001).
+ Inpatient mortality occurred in 70% who needed mechanical ventilation (OR: 29.51; 95% CI: 13.28‐65.60; P &amp;lt; .
+0001), 58% who required continuous renal replacement therapy/hemodialysis (CRRT/HD) (OR: 6.63; 95% CI: 2.74‐16.05; P &amp;lt; .
+0001), and 69% who needed vasopressors (OR: 30.64; 95% CI: 13.56‐69.20; P &amp;lt; .
+0001).
+ Amongst biomarkers of disease severity, only baseline CRP levels (145 ± 116 mg/L) were associated with mortality OR: 1.008 (95% CI: 1.003‐1.012; P = .
+002).
+ Majority of hospitalized patients had hypertension and diabetes.
+ Older age was an independent risk factor for inpatient mortality.
+ Requirement of mechanical ventilation, vasopressor use, and CRRT/HD was associated significantly with inpatient mortality.
+ Higher baseline CRP was significantly associated with inpatient death.
+</t>
+  </si>
+  <si>
+    <t>[Grace%Salacup%salacupg@einstein.edu%0, Kevin Bryan%Lo%NULL%0, Kevin Bryan%Lo%NULL%0, Fahad%Gul%NULL%0, Eric%Peterson%NULL%0, Robert%De Joy%NULL%0, Ruchika%Bhargav%NULL%0, Jerald%Pelayo%NULL%0, Jeri%Albano%NULL%0, Zurab%Azmaiparashvili%NULL%0, Sadia%Benzaquen%NULL%0, Gabriel%Patarroyo‐Aponte%NULL%0, Janani%Rangaswami%NULL%0]</t>
+  </si>
+  <si>
+    <t>John Wiley and Sons Inc.</t>
+  </si>
+  <si>
+    <t>[Yufeng%Shang%NULL%0, Tao%Liu%NULL%0, Yongchang%Wei%NULL%0, Jingfeng%Li%NULL%0, Liang%Shao%NULL%0, Minghui%Liu%NULL%0, Yongxi%Zhang%NULL%0, Zhigang%Zhao%NULL%0, Haibo%Xu%NULL%0, Zhiyong%Peng%NULL%0, Fuling%Zhou%zhoufuling@whu.edu.cn%0, Xinghuan%Wang%wangxinghuan@whu.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>Elsevier</t>
+  </si>
+  <si>
+    <t>[Shaobo%Shi%NULL%0, Mu%Qin%qinmuae@163.com%0, Yuli%Cai%NULL%0, Tao%Liu%NULL%0, Bo%Shen%NULL%0, Fan%Yang%NULL%0, Sheng%Cao%NULL%0, Xu%Liu%NULL%0, Xu%Liu%NULL%0, Yaozu%Xiang%NULL%0, Qinyan%Zhao%NULL%0, He%Huang%huanghe1977@whu.edu.cn%0, Bo%Yang%yybb112@whu.edu.cn%0, Congxin%Huang%NULL%0]</t>
+  </si>
+  <si>
+    <t>Oxford University Press</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brazil is, at the time of writing, the global epicenter of COVID-19, but information on risk factors for hospitalization and mortality in the country is still limited.
+ Demographic and clinical data of COVID-19 patients until June 11th, 2020 were retrieved from the State Health Secretariat of Espírito Santo, Brazil.
+ Potential risk factors for COVID-19 hospitalization and death were analyzed by univariate and multivariable logistic regression models.
+ A total of 10,713 COVID-19 patients were included in this study; 81.0% were younger than 60 years, 55.2% were female, 89.2% were not hospitalized, 32.9% had at least one comorbidity, and 7.7% died.
+ The most common symptoms on admission were cough (67.7%) and fever (62.6%); 7.1% of the patients were asymptomatic.
+ Cardiovascular diseases (23.7%) and diabetes (10.3%) were the two most common chronic diseases.
+ Multivariate logistic regression analysis identified an association of all explanatory variables, except for cough and diarrhea, with hospitalization.
+ Older age (odds ratio [OR] = 3.95, P &amp;lt; 0.001) and shortness of breath (OR = 3.55, P &amp;lt; 0.001) were associated with increase of odds to COVID-19 death in hospitalized patients.
+ Our study provided evidence that older age, male gender, Asian, indigenous or unknown race, comorbidities (smoking, kidney disease, obesity, pulmonary disease, diabetes, and cardiovascular disease), as well as fever and shortness of breath increased the risk of hospitalization.
+ For death outcome in hospitalized patients, only older age and shortness of breath increased the risk.
+</t>
+  </si>
+  <si>
+    <t>[Rita de Cássia Menezes%Soares%NULL%0, Larissa Rodrigues%Mattos%NULL%0, Letícia Martins%Raposo%NULL%0]</t>
+  </si>
+  <si>
+    <t>The American Society of Tropical Medicine and Hygiene</t>
+  </si>
+  <si>
+    <t>[Haiying%Sun%NULL%0, Ruoqi%Ning%NULL%0, Yu%Tao%NULL%0, Chong%Yu%NULL%0, Xiaoyan%Deng%NULL%0, Caili%Zhao%NULL%0, Silu%Meng%NULL%0, Fangxu%Tang%89650793@qq.com%0, Dong%Xu%89650793@qq.com%0, Dong%Xu%89650793@qq.com%0]</t>
+  </si>
+  <si>
+    <t>John Wiley &amp;amp; Sons, Inc.</t>
+  </si>
+  <si>
+    <t>[Kun%Wang%NULL%0, Peiyuan%Zuo%NULL%0, Yuwei%Liu%NULL%0, Meng%Zhang%NULL%0, Xiaofang%Zhao%NULL%0, Songpu%Xie%NULL%0, Hao%Zhang%NULL%0, Xinglin%Chen%NULL%0, Chengyun%Liu%chengyunliu@hust.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Bo%XU%NULL%0, Cun-yu%FAN%NULL%0, An-lu%WANG%NULL%0, Yi-long%ZOU%NULL%0, Yi-han%YU%NULL%0, Cong%HE%NULL%0, Wen-guang%XIA%NULL%0, Ji-xian%ZHANG%NULL%0, Qing%MIAO%NULL%0]</t>
+  </si>
+  <si>
+    <t>The British Infection Association. Published by Elsevier Ltd.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This retrospective study was designed to explore whether neutrophil to lymphocyte ratio (NLR) is a prognostic factor in patients with coronavirus disease 2019 (COVID‐19).
+ A cohort of patients with COVID‐19 admitted to the Tongren Hospital of Wuhan University from 11 January 2020 to 3 March 2020 was retrospectively analyzed.
+ Patients with hematologic malignancy were excluded.
+ The NLR was calculated by dividing the neutrophil count by the lymphocyte count.
+ NLR values were measured at the time of admission.
+ The primary outcome was all‐cause in‐hospital mortality.
+ A multivariate logistic analysis was performed.
+ A total of 1004 patients with COVID‐19 were included in this study.
+ The mortality rate was 4.0% (40 cases).
+ The median age of nonsurvivors (68 years) was significantly older than survivors (62 years).
+ Male sex was more predominant in nonsurvival group (27; 67.5%) than in the survival group (466; 48.3%).
+ NLR value of nonsurvival group (median: 49.06; interquartile range [IQR]: 25.71‐69.70) was higher than that of survival group (median: 4.11; IQR: 2.44‐8.12; P &amp;lt; .
+001).
+ In multivariate logistic regression analysis, after adjusting for confounding factors, NLR  more than 11.75 was significantly correlated with all‐cause in‐hospital mortality (odds ratio = 44.351; 95% confidence interval = 4.627‐425.088).
+ These results suggest that the NLR at hospital admission is associated with in‐hospital mortality among patients with COVID‐19. Therefore, the NLR appears to be a significant prognostic biomarker of outcomes in critically ill patients with COVID‐19. However, further investigation is needed to validate this relationship with data collected prospectively.
+</t>
+  </si>
+  <si>
+    <t>[Xisheng%Yan%NULL%0, Fen%Li%NULL%0, Xiao%Wang%NULL%0, Jie%Yan%NULL%0, Fen%Zhu%NULL%0, Shifan%Tang%NULL%0, Yingzhong%Deng%NULL%0, Hua%Wang%NULL%0, Rui%Chen%NULL%0, Zhili%Yu%NULL%0, Yaping%Li%NULL%0, Jingzhou%Shang%NULL%0, Lingjun%Zeng%NULL%0, Jie%Zhao%NULL%0, Chaokun%Guan%NULL%0, Qiaomei%Liu%NULL%0, Haifeng%Chen%NULL%0, Wei%Gong%NULL%0, Xin%Huang%NULL%0, Yu‐Jiao%Zhang%NULL%0, Jianguang%Liu%NULL%0, Xiaoyan%Dong%NULL%0, Wen%Zheng%zhengwen12@mails.jlu.edu.cn%0, Shaoping%Nie%spnie@126.com%0, Dongsheng%Li%dongshengli196809@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Qing%Yang%NULL%0, Ying%Zhou%NULL%0, Xinrong%Wang%NULL%0, Shan%Gao%NULL%0, Yang%Xiao%NULL%0, Weiming%Zhang%NULL%0, Yi%Hu%huyizxyy@163.com%0, Yafei%Wang%wyf_527@163.com%0]</t>
+  </si>
+  <si>
+    <t>BioMed Central</t>
+  </si>
+  <si>
+    <t>[Xiaobo%Yang%NULL%0, Qingyu%Yang%NULL%0, Yaxin%Wang%NULL%0, Yongran%Wu%NULL%0, Jiqian%Xu%NULL%0, Yuan%Yu%NULL%0, You%Shang%NULL%0]</t>
+  </si>
+  <si>
+    <t>International Society on Thrombosis and Haemostasis. Published by Elsevier Inc.</t>
+  </si>
+  <si>
+    <t>[Wenjing%Ye%yewenjing@xinhuamed.com.cn%0, Guoxi%Chen%4799082@qq.com%0, Xiaopan%Li%xiaopanli0224@126.com%0, Xing%Lan%474137452@qq.com%0, Chen%Ji%c.ji.3@warwick.ac.uk%0, Min%Hou%min-hou710@hotmail.com%0, Di%Zhang%zhangdizhangdi1234@163.com%0, Guangwang%Zeng%785663609@qq.com%0, Yaling%Wang%953822402@qq.com%0, Cheng%Xu%xucheng112358@126.com%0, Weiwei%Lu%luweiwei100@126.com%0, Ruolin%Cui%crlqwerty@163.com%0, Yuyang%Cai%caiyuyang@sjtu.edu.cn%0, Hai%Huang%1220775601@qq.com%0, Ling%Yang%yangling01@xinhuamed.com.cn%0]</t>
+  </si>
+  <si>
+    <t>[Caizheng%Yu%NULL%0, Qing%Lei%NULL%0, Wenkai%Li%NULL%0, Xiong%Wang%NULL%0, Wei%Liu%NULL%0, Xionglin%Fan%NULL%0, Wengang%Li%228907211@qq.com%0]</t>
+  </si>
+  <si>
+    <t>American Journal of Preventive Medicine. Published by Elsevier Inc.</t>
+  </si>
+  <si>
+    <t>[Fei%Zhou%NULL%0, Ting%Yu%NULL%0, Ronghui%Du%NULL%0, Guohui%Fan%NULL%0, Ying%Liu%NULL%0, Zhibo%Liu%NULL%0, Jie%Xiang%NULL%0, Yeming%Wang%NULL%0, Bin%Song%NULL%0, Xiaoying%Gu%NULL%0, Lulu%Guan%NULL%0, Yuan%Wei%NULL%0, Hui%Li%NULL%0, Xudong%Wu%NULL%0, Jiuyang%Xu%NULL%0, Shengjin%Tu%NULL%0, Yi%Zhang%NULL%0, Hua%Chen%NULL%0, Bin%Cao%NULL%0]</t>
+  </si>
+  <si>
+    <t>Elsevier Ltd.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Knowledge of the outcomes of critically ill patients is crucial for health and government officials who are planning how to address local outbreaks.
+ The factors associated with outcomes of critically ill patients with coronavirus disease 2019 (Covid-19) who required treatment in an intensive care unit (ICU) are yet to be determined.
+ Methods: This was a retrospective registry-based case series of patients with laboratory-confirmed SARS-CoV-2 who were referred for ICU admission and treated in the ICUs of the 13 participating centers in Israel between 5 March and 27 April 2020. Demographic and clinical data including clinical management were collected and subjected to a multivariable analysis; primary outcome was mortality.
+ Results: This study included 156 patients (median age = 72 years (range = 22–97 years)); 69% (108 of 156) were male.
+ Eighty-nine percent (139 of 156) of patients had at least one comorbidity.
+ One hundred three patients (66%) required invasive mechanical ventilation.
+ As of 8 May 2020, the median length of stay in the ICU was 10 days (range = 0–37 days).
+ The overall mortality rate was 56%; a multivariable regression model revealed that increasing age (OR = 1.08 for each year of age, 95%CI = 1.03–1.13), the presence of sepsis (OR = 1.08 for each year of age, 95%CI = 1.03–1.13), and a shorter ICU stay(OR = 0.90 for each day, 95% CI = 0.84–0.96) were independent prognostic factors.
+ Conclusions: In our case series, we found lower mortality rates than those in exhausted health systems.
+ The results of our multivariable model suggest that further evaluation is needed of antiviral and antibacterial agents in the treatment of sepsis and secondary infection.
+</t>
+  </si>
+  <si>
+    <t>[Moran%Amit%NULL%0, Alex%Sorkin%NULL%0, Jacob%Chen%NULL%0, Barak%Cohen%NULL%0, Barak%Cohen%NULL%0, Dana%Karol%NULL%0, Dana%Karol%NULL%0, Avishai M%Tsur%NULL%0, Shaul%Lev%NULL%0, Shaul%Lev%NULL%0, Tal%Rozenblat%NULL%0, Ayana%Dvir%NULL%0, Ayana%Dvir%NULL%0, Geva%Landau%NULL%0, Lidar%Fridrich%NULL%0, Lidar%Fridrich%NULL%0, Elon%Glassberg%NULL%0, Shani%Kesari%NULL%0, Sigal%Sviri%NULL%0, Ram%Gelman%NULL%0, Asaf%Miller%NULL%0, Danny%Epstein%NULL%0, Ronny%Ben-Avi%NULL%0, Ronny%Ben-Avi%NULL%0, Moshe%Matan%NULL%0, Daniel J.%Jakobson%NULL%0, Daniel J.%Jakobson%NULL%0, Tarif%Bader%NULL%0, Tarif%Bader%NULL%0, David%Dahan%NULL%0, David%Dahan%NULL%0, Daniel A.%King%NULL%0, Anat%Ben-Ari%NULL%0, Arie%Soroksky%NULL%0, Alon%Bar%NULL%0, Alon%Bar%NULL%0, Noam%Fink%NULL%0, Pierre%Singer%NULL%0, Avi%Benov%NULL%0]</t>
+  </si>
+  <si>
+    <t>MDPI</t>
+  </si>
+  <si>
+    <t>[Alexander%Muacevic%NULL%0, John R%Adler%NULL%0, Muhammad Sohaib%Asghar%NULL%0, Muhammad Sohaib%Asghar%NULL%0, Syed Jawad%Haider Kazmi%NULL%0, Noman%Ahmed Khan%NULL%0, Mohammed%Akram%NULL%0, Salman%Ahmed Khan%NULL%0, Uzma%Rasheed%NULL%0, Maira%Hassan%NULL%0, Gul Muhammad%Memon%NULL%0]</t>
+  </si>
+  <si>
+    <t>Cureus</t>
+  </si>
+  <si>
+    <t>[Pedro%Baqui%NULL%0, Ioana%Bica%NULL%0, Valerio%Marra%marra@cosmo-ufes.org%0, Ari%Ercole%NULL%0, Mihaela%van der Schaar%NULL%0]</t>
+  </si>
+  <si>
+    <t>The Author(s). Published by Elsevier Ltd.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+              •
+Brixia score is a new chest X-ray scoring system designed for COVID-19 pneumonia.
+</t>
+  </si>
+  <si>
+    <t>[Andrea%Borghesi%NULL%0, Angelo%Zigliani%NULL%0, Salvatore%Golemi%NULL%0, Nicola%Carapella%NULL%0, Patrizia%Maculotti%NULL%0, Davide%Farina%NULL%0, Roberto%Maroldi%NULL%0]</t>
+  </si>
+  <si>
+    <t>The Author(s). Published by Elsevier Ltd on behalf of International Society for Infectious Diseases.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Background: Since the confirmation of the first patient infected with SARS-CoV-2 in Spain in January 2020, the epidemic has grown rapidly, with the greatest impact on the region of Madrid.
+ This article describes the first 2226 adult patients with COVID-19, consecutively admitted to La Paz University Hospital in Madrid.
+ Methods: Our cohort included all patients consecutively hospitalized who had a final outcome (death or discharge) in a 1286-bed hospital of Madrid (Spain) from 25 February (first case admitted) to 19 April 2020. The data were manually entered into an electronic case report form, which was monitored prior to the analysis.
+ Results: We consecutively included 2226 adult patients admitted to the hospital who either died (460) or were discharged (1766).
+ The patients’ median age was 61 years, and 51.8% were women.
+ The most common comorbidity was arterial hypertension (41.3%), and the most common symptom on admission was fever (71.2%).
+ The median time from disease onset to hospital admission was 6 days.
+ The overall mortality was 20.7% and was higher in men (26.6% vs.
+ 15.1%).
+ Seventy-five patients with a final outcome were transferred to the intensive care unit (ICU) (3.4%).
+ Most patients admitted to the ICU were men, and the median age was 64 years.
+ Baseline laboratory values on admission were consistent with an impaired immune-inflammatory profile.
+ Conclusions: We provide a description of the first large cohort of hospitalized patients with COVID-19 in Europe.
+ Advanced age, male sex, the presence of comorbidities and abnormal laboratory values were more common among the patients with fatal outcomes.
+</t>
+  </si>
+  <si>
+    <t>[Alberto M.%Borobia%NULL%0, Antonio J.%Carcas%NULL%0, Antonio J.%Carcas%NULL%0, Francisco%Arnalich%NULL%0, Rodolfo%Álvarez-Sala%NULL%0, Rodolfo%Álvarez-Sala%NULL%0, Jaime%Monserrat-Villatoro%NULL%0, Manuel%Quintana%NULL%0, Juan Carlos%Figueira%NULL%0, Rosario M.%Torres Santos-Olmo%NULL%0, Julio%García-Rodríguez%NULL%0, Julio%García-Rodríguez%NULL%0, Alberto%Martín-Vega%NULL%0, Antonio%Buño%NULL%0, Elena%Ramírez%NULL%0, Gonzalo%Martínez-Alés%NULL%0, Gonzalo%Martínez-Alés%NULL%0, Nicolás%García-Arenzana%NULL%0, M. Concepción%Núñez%NULL%0, M. Concepción%Núñez%NULL%0, Milagros%Martí-de-Gracia%NULL%0, Francisco%Moreno Ramos%NULL%0, Francisco%Reinoso-Barbero%NULL%0, Alejandro%Martin-Quiros%NULL%0, Angélica%Rivera Núñez%NULL%0, Jesús%Mingorance%NULL%0, Carlos J.%Carpio Segura%NULL%0, Carlos J.%Carpio Segura%NULL%0, Daniel%Prieto Arribas%NULL%0, Esther%Rey Cuevas%NULL%0, Concepción%Prados Sánchez%NULL%0, Juan J.%Rios%NULL%0, Miguel A.%Hernán%NULL%0, Jesús%Frías%NULL%0, José R.%Arribas%NULL%0, NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Simon E.%Brill%simon.brill@nhs.net%0, Hannah C.%Jarvis%NULL%0, Hannah C.%Jarvis%NULL%0, Ezgi%Ozcan%NULL%0, Thomas L. P.%Burns%NULL%0, Rabia A.%Warraich%NULL%0, Lisa J.%Amani%NULL%0, Amina%Jaffer%NULL%0, Stephanie%Paget%NULL%0, Anand%Sivaramakrishnan%NULL%0, Dean D.%Creer%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jianlei%Cao%NULL%0, Wen-Jun%Tu%tuwenjun@irm-cams.ac.cn%0, Wenlin%Cheng%NULL%0, Lei%Yu%NULL%0, Ya-Kun%Liu%NULL%0, Xiaoyong%Hu%NULL%0, Qiang%Liu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[B.%Carter%NULL%0, J.T.%Collins%NULL%0, F.%Barlow-Pay%NULL%0, F.%Rickard%NULL%0, E.%Bruce%NULL%0, A.%Verduri%NULL%0, T.J.%Quinn%NULL%0, E.%Mitchell%NULL%0, A.%Price%NULL%0, A.%Vilches-Moraga%NULL%0, M.J.%Stechman%NULL%0, R.%Short%NULL%0, A.%Einarsson%NULL%0, P.%Braude%NULL%0, S.%Moug%NULL%0, P.K.%Myint%NULL%0, J.%Hewitt%NULL%0, L.%Pearce%NULL%0, K.%McCarthy%NULL%0, C.%Davey%NULL%0, S.%Jones%NULL%0, K.%Lunstone%NULL%0, A.%Cavenagh%NULL%0, C.%Silver%NULL%0, T.%Telford%NULL%0, R.%Simmons%NULL%0, M.%Holloway%NULL%0, J.%Hesford%NULL%0, T.%El Jichi Mutasem%NULL%0, S.%Singh%NULL%0, D.%Paxton%NULL%0, W.%Harris%NULL%0, N.%Galbraith%NULL%0, E.%Bhatti%NULL%0, J.%Edwards%NULL%0, S.%Duffy%NULL%0, J.%Kelly%NULL%0, C.%Murphy%NULL%0, C.%Bisset%NULL%0, R.%Alexander%NULL%0, M.%Garcia%NULL%0, S.%Sangani%NULL%0, T.%Kneen%NULL%0, T.%Lee%NULL%0, A.%McGovern%NULL%0, G.%Guaraldi%NULL%0, E.%Clini%NULL%0]</t>
+  </si>
+  <si>
+    <t>The Healthcare Infection Society. Published by Elsevier Ltd.</t>
+  </si>
+  <si>
+    <t>[Fuyang%Chen%NULL%0, Wenwu%Sun%NULL%0, Shengrong%Sun%NULL%0, Zhiyu%Li%lizhiyu@whu.edu.cn%0, Zhong%Wang%zhongwangchn@whu.edu.cn%0, Li%Yu%yuliwhzxyy@163.com%0, Li%Yu%yuliwhzxyy@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Ruchong%Chen%NULL%0, Ling%Sang%NULL%0, Mei%Jiang%NULL%0, Zhaowei%Yang%NULL%0, Nan%Jia%NULL%0, Wanyi%Fu%NULL%0, Jiaxing%Xie%NULL%0, Weijie%Guan%NULL%0, Wenhua%Liang%NULL%0, Zhengyi%Ni%NULL%0, Yu%Hu%NULL%0, Lei%Liu%NULL%0, Hong%Shan%NULL%0, Chunliang%Lei%NULL%0, Yixiang%Peng%NULL%0, Li%Wei%NULL%0, Yong%Liu%NULL%0, Yahua%Hu%NULL%0, Peng%Peng%NULL%0, Jianming%Wang%NULL%0, Jiyang%Liu%NULL%0, Zhong%Chen%NULL%0, Gang%Li%NULL%0, Zhijian%Zheng%NULL%0, Shaoqin%Qiu%NULL%0, Jie%Luo%NULL%0, Changjiang%Ye%NULL%0, Shaoyong%Zhu%NULL%0, Jinping%Zheng%NULL%0, Nuofu%Zhang%NULL%0, Yimin%Li%NULL%0, Jianxing%He%NULL%0, Jing%Li%NULL%0, Shiyue%Li%NULL%0, Nanshan%Zhong%NULL%0, NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>American Academy of Allergy, Asthma &amp;amp; Immunology</t>
+  </si>
+  <si>
+    <t>[Tao%Chen%NULL%0, Di%Wu%NULL%0, Huilong%Chen%NULL%0, Weiming%Yan%NULL%0, Danlei%Yang%NULL%0, Guang%Chen%NULL%0, Ke%Ma%NULL%0, Dong%Xu%NULL%0, Haijing%Yu%NULL%0, Hongwu%Wang%NULL%0, Tao%Wang%NULL%0, Wei%Guo%NULL%0, Jia%Chen%NULL%0, Chen%Ding%NULL%0, Xiaoping%Zhang%NULL%0, Jiaquan%Huang%NULL%0, Meifang%Han%NULL%0, Shusheng%Li%NULL%0, Xiaoping%Luo%NULL%0, Jianping%Zhao%NULL%0, Qin%Ning%NULL%0]</t>
+  </si>
+  <si>
+    <t>BMJ Publishing Group Ltd.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+              •
+              Initial blood urea nitrogen (BUN) and D-dimer levels were associated with mortality in COVID-19 patients.
+</t>
+  </si>
+  <si>
+    <t>[Anying%Cheng%NULL%0, Liu%Hu%NULL%0, Yiru%Wang%NULL%0, Luyan%Huang%NULL%0, Lingxi%Zhao%NULL%0, Congcong%Zhang%NULL%0, Xiyue%Liu%NULL%0, Ranran%Xu%NULL%0, Feng%Liu%NULL%0, Jinping%Li%NULL%0, Dawei%Ye%NULL%0, Tao%Wang%NULL%0, Yongman%Lv%lvyongman@126.com%0, Qingquan%Liu%qqliutj@163.com%0]</t>
+  </si>
+  <si>
+    <t>Elsevier B.V. and International Society of Chemotherapy.</t>
+  </si>
+  <si>
+    <t>[Fabio%Ciceri%ciceri.fabio@hsr.it%0, Antonella%Castagna%NULL%0, Patrizia%Rovere-Querini%NULL%0, Francesco%De Cobelli%NULL%0, Annalisa%Ruggeri%NULL%0, Laura%Galli%NULL%0, Caterina%Conte%NULL%0, Rebecca%De Lorenzo%NULL%0, Andrea%Poli%NULL%0, Alberto%Ambrosio%NULL%0, Carlo%Signorelli%NULL%0, Eleonora%Bossi%NULL%0, Maria%Fazio%NULL%0, Cristina%Tresoldi%NULL%0, Sergio%Colombo%NULL%0, Giacomo%Monti%NULL%0, Efgeny%Fominskiy%NULL%0, Stefano%Franchini%NULL%0, Marzia%Spessot%NULL%0, Carlo%Martinenghi%NULL%0, Michele%Carlucci%NULL%0, Luigi%Beretta%NULL%0, Anna Maria%Scandroglio%NULL%0, Massimo%Clementi%NULL%0, Massimo%Locatelli%NULL%0, Moreno%Tresoldi%NULL%0, Paolo%Scarpellini%NULL%0, Gianvito%Martino%NULL%0, Emanuele%Bosi%NULL%0, Lorenzo%Dagna%NULL%0, Adriano%Lazzarin%NULL%0, Giovanni%Landoni%NULL%0, Alberto%Zangrillo%NULL%0]</t>
+  </si>
+  <si>
+    <t>The Authors. Published by Elsevier Inc.</t>
+  </si>
+  <si>
+    <t>[Yan%Deng%NULL%0, Wei%Liu%NULL%0, Kui%Liu%NULL%0, Yuan-Yuan%Fang%NULL%0, Jin%Shang%NULL%0, Ling%Zhou%NULL%0, Ke%Wang%NULL%0, Fan%Leng%NULL%0, Shuang%Wei%NULL%0, Lei%Chen%NULL%0, Hui-Guo%Liu%NULL%0, Pei-Fang%Wei%NULL%0, Pei-Fang%Wei%NULL%0]</t>
+  </si>
+  <si>
+    <t>Wolters Kluwer Health</t>
+  </si>
+  <si>
+    <t>[Rong-Hui%Du%NULL%0, Li-Rong%Liang%NULL%0, Cheng-Qing%Yang%NULL%0, Wen%Wang%NULL%0, Tan-Ze%Cao%NULL%0, Ming%Li%NULL%0, Guang-Yun%Guo%NULL%0, Juan%Du%NULL%0, Chun-Lan%Zheng%NULL%0, Qi%Zhu%NULL%0, Ming%Hu%NULL%0, Xu-Yan%Li%NULL%0, Peng%Peng%NULL%0, Huan-Zhong%Shi%NULL%0]</t>
+  </si>
+  <si>
+    <t>European Respiratory Society</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The mortality rate of elderly patients with Coronavirus Disease 2019 (COVID-19) was significantly higher than the overall mortality rate.
+ However, besides age, leading death risk factors for the high mortality in elderly patients remain unidentified.
+ This retrospective study included 210 elderly COVID-19 patients (aged ≥ 65 years), of whom 175 patients were discharged and 35 died.
+ All deceased patients had at least one comorbidity.
+ A significantly higher proportion of patients in the deceased group had cardiovascular diseases (49% vs.
+ 20%), respiratory diseases (51% vs.
+ 11%), chronic kidney disease (29% vs.
+ 5%) and cerebrovascular disease (20% vs.
+ 3%) than that in the discharged group.
+ The median levels of C-reactive protein (125.8mg/L vs.
+ 9.3mg/L) and blood urea nitrogen (7.2mmol/L vs.
+ 4.4mmol/L) were significantly higher and median lymphocyte counts (0.7×109/L vs.
+ 1.1×109/L) significantly lower in the deceased group than those in the discharged group.
+ The survival curve analysis showed that higher C-reactive protein (≥5mg/L) plus any other abnormalities of lymphocyte, blood urea nitrogen or lactate dehydrogenase significantly predicted poor prognosis of COVID-19 infected elderly patients.
+ This study revealed that the risk factors for the death in these elderly patients included comorbidities, increased levels of C-reactive protein and blood urea nitrogen, and lymphopenia during hospitalization.
+</t>
+  </si>
+  <si>
+    <t>[Shan%Gao%NULL%0, Fang%Jiang%NULL%0, Wei%Jin%NULL%0, Yuan%Shi%NULL%0, Leilei%Yang%NULL%0, Yanqiong%Xia%NULL%0, Linyan%Jia%NULL%0, Bo%Wang%NULL%0, Han%Lin%NULL%0, Yin%Cai%NULL%0, Zhengyuan%Xia%NULL%0, Jian%Peng%NULL%0]</t>
+  </si>
+  <si>
+    <t>Impact Journals</t>
+  </si>
+  <si>
+    <t>[Pedro David%Wendel Garcia%pedrodavid.wendelgarcia@usz.ch%0, Thierry%Fumeaux%thierry.fumeaux@ghol.ch%0, Philippe%Guerci%NULL%0, Dorothea Monika%Heuberger%dorotheamonika.heuberger@usz.ch%0, Jonathan%Montomoli%NULL%0, Ferran%Roche-Campo%NULL%0, Reto Andreas%Schuepbach%reto.schuepbach@usz.ch%0, Matthias Peter%Hilty%matthias.hilty@usz.ch%0, Mario%Alfaro Farias%NULL%0, Antoni%Margarit%NULL%0, Gerardo%Vizmanos-Lamotte%NULL%0, Thomas%Tschoellitsch%NULL%0, Jens%Meier%NULL%0, Francesco S.%Cardona%NULL%0, Josef%Skola%NULL%0, Lenka%Horakova%NULL%0, Hernan%Aguirre-Bermeo%NULL%0, Janina%Apolo%NULL%0, Emmanuel%Novy%NULL%0, Marie-Reine%Losser%NULL%0, Geoffrey%Jurkolow%NULL%0, Gauthier%Delahaye%NULL%0, Sascha%David%NULL%0, Tobias%Welte%NULL%0, Tobias%Wengenmayer%NULL%0, Dawid L.%Staudacher%NULL%0, Theodoros%Aslanidis%NULL%0, Barna%Babik%NULL%0, Anita%Korsos%NULL%0, Janos%Gal%NULL%0, Hermann%Csaba%NULL%0, Abele%Donati%NULL%0, Andrea%Carsetti%NULL%0, Fabrizio%Turrini%NULL%0, Maria Sole%Simonini%NULL%0, Roberto%Ceriani%NULL%0, Martina%Murrone%NULL%0, Emanuele%Rezoagli%NULL%0, Giovanni%Vitale%NULL%0, Alberto%Fogagnolo%NULL%0, Savino%Spadaro%NULL%0, Maddalena Alessandra%Wu%NULL%0, Chiara%Cogliati%NULL%0, Riccardo%Colombo%NULL%0, Emanuele%Catena%NULL%0, Francesca%Facondini%NULL%0, Antonella%Potalivo%NULL%0, Gianfilippo%Gangitano%NULL%0, Tiziana%Perin%NULL%0, Maria Grazia%Bocci%NULL%0, Massimo%Antonelli%NULL%0, Diederik%Gommers%NULL%0, Can%Ince%NULL%0, Eric%Mayor-Vázquez%NULL%0, Maria%Cruz%NULL%0, Martin%Delgado%NULL%0, Raquel Rodriguez%Garcia%NULL%0, Jorge%Gamez Zapata%NULL%0, Begoña%Zalba-Etayo%NULL%0, Herminia%Lozano-Gomez%NULL%0, Pedro%Castro%NULL%0, Adrian%Tellez%NULL%0, Adriana%Jacas%NULL%0, Guido%Muñoz%NULL%0, Rut%Andrea%NULL%0, Jose%Ortiz%NULL%0, Eduard%Quintana%NULL%0, Irene%Rovira%NULL%0, Enric%Reverter%NULL%0, Javier%Fernandez%NULL%0, Miquel%Ferrer%NULL%0, Joan R.%Badia%NULL%0, Arantxa%Lander Azcona%NULL%0, Jesus Escos%Orta%NULL%0, Philipp%Bühler%NULL%0, Silvio%Brugger%NULL%0, Daniel%Hofmaenner%NULL%0, Simone%Unseld%NULL%0, Frank%Ruschitzka%NULL%0, Mallory%Moret-Bochatay%NULL%0, Bernd%Yuen%NULL%0, Thomas%Hillermann%NULL%0, Hatem%Ksouri%NULL%0, Govind Oliver%Sridharan%NULL%0, Anette%Ristic%NULL%0, Michael%Sepulcri%NULL%0, Miodrag%Filipovic%NULL%0, Urs%Pietsch%NULL%0, Petra%Salomon%NULL%0, Iris%Drvaric%NULL%0, Peter%Schott%NULL%0, Severin%Urech%NULL%0, Adriana%Lambert%NULL%0, Lukas%Merki%NULL%0, Marcus%Laube%NULL%0, Frank%Hillgaertner%NULL%0, Marianne%Sieber%NULL%0, Alexander%Dullenkopf%NULL%0, Lina%Petersen%NULL%0, Serge%Grazioli%NULL%0, Peter C.%Rimensberger%NULL%0, Isabelle%Fleisch%NULL%0, Jerome%Lavanchy%NULL%0, Katharina%Marquardt%NULL%0, Karim%Shaikh%NULL%0, Hermann%Redecker%NULL%0, Michael%Stephan%NULL%0, Jan%Brem%NULL%0, Bjarte%Rogdo%NULL%0, Andre%Birkenmaier%NULL%0, Friederike%Meyer zu Bentrup%NULL%0, Patricia%Fodor%NULL%0, Pascal%Locher%NULL%0, Giovanni%Camen%NULL%0, Martin%Siegemund%NULL%0, Nuria%Zellweger%NULL%0, Marie-Madlen%Jeitziner%NULL%0, Beatrice%Jenni-Moser%NULL%0, Christian%Bürkle%NULL%0, Gian-Reto%Kleger%NULL%0, Marilene%Franchitti Laurent%NULL%0, Jean-Christophe%Laurent%NULL%0, Tomislav%Gaspert%NULL%0, Marija%Jovic%NULL%0, Michael%Studhalter%NULL%0, Christoph%Haberthuer%NULL%0, Roger F.%Lussman%NULL%0, Daniela%Selz%NULL%0, Didier%Naon%NULL%0, Romano%Mauri%NULL%0, Samuele%Ceruti%NULL%0, Julien%Marrel%NULL%0, Mirko%Brenni%NULL%0, Rolf%Ensner%NULL%0, Nadine%Gehring%NULL%0, Antje%Heise%NULL%0, Tobias%Huebner%NULL%0, Thomas A.%Neff%NULL%0, Sara%Cereghetti%NULL%0, Filippo%Boroli%NULL%0, Jerome%Pugin%NULL%0, Nandor%Marczin%NULL%0, Joyce%Wong%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Warren%Gavin%NULL%0, Elliott%Campbell%NULL%0, Syed-Adeel%Zaidi%NULL%0, Neha%Gavin%NULL%0, Lana%Dbeibo%NULL%0, Cole%Beeler%NULL%0, Kari%Kuebler%NULL%0, Ahmed%Abdel-Rahman%NULL%0, Mark%Luetkemeyer%NULL%0, Areeba%Kara%NULL%0]</t>
+  </si>
+  <si>
+    <t>Association for Professionals in Infection Control and Epidemiology, Inc. Published by Elsevier Inc.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">There is limited data on the clinical presentation and predictors of mortality in the African‐American (AA) patients hospitalized with coronavirus disease 2019 (COVID‐19) despite the disproportionately higher burden and mortality.
+ The aim of this study is to report on the clinical characteristics and the predictors of mortality in hospitalized AA patients with COVID‐19 infection.
+ In this retrospective cohort review, we included all AA patients with confirmed COVID‐19 infection admitted to an inner‐city teaching community hospital in New York city.
+ Demographics, clinical presentation, baseline co‐morbidities, and laboratory data were compared between survivors and non‐survivors.
+ The predictors of mortality were assessed using multivariate logistic regression analysis.
+ Of the 408 (median age, 67 years) patients included, 276 (66.65%, median age 63 years) survived while 132 (33.35%, median age 71 years) died.
+ The most common presenting symptoms were cough, myalgia, fever/chills, shortness of breath, and gastrointestinal symptoms (nausea, vomiting, diarrhea, and abdominal pain), with a prevalence of 62.50%, 43.87%, 53.68%, and 27.21%, respectively.
+ Age (odds ratio [OR], 1.06; confidence interval [CI], 1.04‐1.08; P &amp;lt; .
+001), body mass index (OR, 1.07; CI, 1.04‐1.11; P &amp;lt; .
+001), elevated serum ferritin (OR, 1.99; CI, 1.08‐3.66; P &amp;lt; .
+02), C‐reactive protein (OR, 2.42; CI, 1.36‐4.33; P &amp;lt; .
+01), and D‐dimers (OR, 3.79; CI, 2.21‐6.50; P &amp;lt; .
+001) at the time of presentation were identified as the independent predictors of mortality.
+ Cough, shortness of breath, fever/chills, gastrointestinal symptoms, and myalgia were the predominant presentation among AAs hospitalized with COVID‐19 infection.
+ Advanced age, higher body mass index, elevated serum ferritin, C‐reactive protein, and D‐dimers are independent predictors of mortality among hospitalized AAs with COVID‐19 infection.
+</t>
+  </si>
+  <si>
+    <t>[Vijay%Gayam%vgayam@interfaithmedical.com%0, Muchi Ditah%Chobufo%NULL%0, Muchi Ditah%Chobufo%NULL%0, Mohamed A.%Merghani%NULL%0, Mohamed A.%Merghani%NULL%0, Shristi%Lamichhane%NULL%0, Pavani Reddy%Garlapati%NULL%0, Mark K.%Adler%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Hai%Hu%huhai@wchscu.cn%0, Ni%Yao%NULL%0, Ni%Yao%NULL%0, Yanru%Qiu%NULL%0, John H.%Burton%NULL%0, John H.%Burton%NULL%0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The coronavirus disease 2019 (COVID‐19) has evolved into a pandemic rapidly.
+ Most of the literature show that the elevated liver enzymes in COVID‐19 are of little clinical significance.
+ Lower albumin level is seen in severe COVID‐19 and is not parallel to the changes in alanine aminotransferase and aspartate aminotransferase levels.
+ We aimed to explore the impact of hypoalbuminemia in COVID‐19. This retrospective cohort study included adult patients with confirmed COVID‐19. The relationship between hypoalbuminemia and death was studied using binary logistic analysis.
+ A total of 299 adult patients were included, 160 (53.5%) were males and the average age was 53.4 ± 16.7 years.
+ The median time from the onset of illness to admission was 3 days (interquartile ranges, 2‐5).
+ Approximately one‐third of the patients had comorbidities.
+ Hypoalbuminemia (&amp;lt;35 g/L) was found in 106 (35.5%) patients.
+ The difference in albumin was considerable between survivors and non‐survivors (37.6 ± 6.2 vs 30.5 ± 4.0, P &amp;lt; .
+001).
+ Serum albumin level was inversely correlated to white blood cell (r = –.
+149, P = .
+01) and neutrophil to lymphocyte ratio (r = −.
+298, P &amp;lt; .
+001).
+ Multivariate analysis showed the presence of comorbidities (OR, 6.816; 95% CI, 1.361‐34.133), lymphopenia (OR, 13.130; 95% CI, 1.632‐105.658) and hypoalbuminemia (OR, 6.394; 95% CI, 1.315‐31.092) were independent predictive factors for mortality.
+ In conclusion, hypoalbuminemia is associated with the outcome of COVID‐19. The potential therapeutic value of albumin infusion in COVID‐19 should be further explored at the earliest.
+</t>
+  </si>
+  <si>
+    <t>[Jiaofeng%Huang%NULL%0, Aiguo%Cheng%NULL%0, Rahul%Kumar%NULL%0, Yingying%Fang%NULL%0, Yingying%Fang%NULL%0, Gongping%Chen%NULL%0, Yueyong%Zhu%NULL%0, Su%Lin%sumer5129@fjmu.edu.cn%0, Su%Lin%sumer5129@fjmu.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Jong-moon%Hwang%NULL%0, Ju-Hyun%Kim%NULL%0, Jin-Sung%Park%NULL%0, Min Cheol%Chang%wheel633@ynu.ac.kr%0, Donghwi%Park%bdome@hanmail.net%0]</t>
+  </si>
+  <si>
+    <t>Springer International Publishing</t>
+  </si>
+  <si>
+    <t>[K.%Khalil%NULL%0, K.%Agbontaen%NULL%0, D.%McNally%NULL%0, A.%Love%NULL%0, S.%Mandalia%NULL%0, W.%Banya%NULL%0, E.%Starren%NULL%0, R.%Dhunnookchand%NULL%0, H.%Farne%NULL%0, R.%Morton%NULL%0, G.%Davies%NULL%0, O.%Orhan%NULL%0, D%Lai%NULL%0, M.%Nelson%NULL%0, P.L.%Shah%NULL%0, J.L.%Garner%Justin.garner@chelwest.nhs.uk%0]</t>
+  </si>
+  <si>
+    <t>[Eyal%Klang%NULL%0, Gassan%Kassim%NULL%0, Shelly%Soffer%soffer.shelly@gmail.com%0, Robert%Freeman%NULL%0, Robert%Freeman%NULL%0, Matthew A.%Levin%NULL%0, Matthew A.%Levin%NULL%0, David L.%Reich%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Sandeep%Krishnan%NULL%0, Kinjal%Patel%NULL%0, Ronak%Desai%NULL%0, Anupam%Sule%NULL%0, Peter%Paik%NULL%0, Ashley%Miller%NULL%0, Alicia%Barclay%NULL%0, Adam%Cassella%NULL%0, Jon%Lucaj%NULL%0, Yvonne%Royster%NULL%0, Joffer%Hakim%NULL%0, Zulfiqar%Ahmed%NULL%0, Farhad%Ghoddoussi%NULL%0]</t>
+  </si>
+  <si>
+    <t>Published by Elsevier Inc.</t>
+  </si>
+  <si>
+    <t>[Wil%Lieberman-Cribbin%NULL%0, Joseph%Rapp%NULL%0, Naomi%Alpert%NULL%0, Stephanie%Tuminello%NULL%0, Emanuela%Taioli%NULL%0]</t>
+  </si>
+  <si>
+    <t>American College of Chest Physicians. Published by Elsevier Inc.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To describe the laboratory findings of cases of death with coronavirus disease 2019 (COVID-19) and to establish a scoring system for predicting death, we conducted this single-centre, retrospective, observational study including 336 adult patients (≥18 years old) with severe or critically ill COVID-19 admitted in two wards of Union Hospital, Tongji Medical College, Huazhong University of Science and Technology in Wuhan, who had definite outcomes (death or discharge) between 1 February 2020 and 13 March 2020. Single variable and multivariable logistic regression analyses were performed to identify mortality-related factors.
+ We combined multiple factors to predict mortality, which was validated by receiver operating characteristic curves.
+ As a result, in a total of 336 patients, 34 (10.1%) patients died during hospitalisation.
+ Through multivariable logistic regression, we found that decreased lymphocyte ratio (Lymr, %) (odds ratio, OR 0.574, P &amp;lt; 0.001), elevated blood urea nitrogen (BUN) (OR 1.513, P = 0.009), and raised D-dimer (DD) (OR 1.334, P = 0.002) at admission were closely related to death.
+ The combined prediction model was developed by these factors with a sensitivity of 100.0% and specificity of 97.2%.
+ In conclusion, decreased Lymr, elevated BUN, and raised DD were found to be in association with death outcomes in critically ill patients with COVID-19. A scoring system was developed to predict the clinical outcome of these patients.
+</t>
+  </si>
+  <si>
+    <t>[Q.%Liu%NULL%0, N. C.%Song%NULL%0, Z. K.%Zheng%NULL%0, J. S.%Li%NULL%0, S. K.%Li%NULL%0]</t>
+  </si>
+  <si>
+    <t>Cambridge University Press</t>
+  </si>
+  <si>
+    <t>[Hui%Long%NULL%0, Lan%Nie%NULL%0, Xiaochen%Xiang%NULL%0, Huan%Li%NULL%0, Xiaoli%Zhang%NULL%0, Xiaozhi%Fu%NULL%0, Hongwei%Ren%NULL%0, Wanxin%Liu%NULL%0, Qiang%Wang%wangqiang@wust.edu.cn%0, Qingming%Wu%wuhe9224@sina.com%0, Qingming%Wu%wuhe9224@sina.com%0]</t>
+  </si>
+  <si>
+    <t>Hindawi</t>
+  </si>
+  <si>
+    <t>[Xiaomin%Luo%luoxiaomin04@163.com%0, Wei%Zhou%NULL%0, Xiaojie%Yan%NULL%0, Tangxi%Guo%NULL%0, Benchao%Wang%NULL%0, Hongxia%Xia%NULL%0, Lu%Ye%NULL%0, Jun%Xiong%NULL%0, Zongping%Jiang%NULL%0, Yu%Liu%NULL%0, Bicheng%Zhang%NULL%0, Weize%Yang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ying%Luo%NULL%0, Liyan%Mao%NULL%0, Xu%Yuan%NULL%0, Ying%Xue%NULL%0, Qun%Lin%NULL%0, Guoxing%Tang%NULL%0, Huijuan%Song%NULL%0, Feng%Wang%fengwang@tjh.tjmu.edu.cn%0, Ziyong%Sun%zysun@tjh.tjmu.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>Springer US</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Background: The predictive value of prealbumin for the prognosis of coronavirus disease 2019 (COVID-19) has not been extensively investigated.
+</t>
+  </si>
+  <si>
+    <t>[Ying%Luo%NULL%0, Ying%Xue%NULL%0, Liyan%Mao%NULL%0, Xu%Yuan%NULL%0, Qun%Lin%NULL%0, Guoxing%Tang%NULL%0, Huijuan%Song%NULL%0, Feng%Wang%NULL%0, Ziyong%Sun%NULL%0]</t>
+  </si>
+  <si>
+    <t>Frontiers Media S.A.</t>
+  </si>
+  <si>
+    <t>[Chiara%Masetti%NULL%0, Elena%Generali%NULL%0, Francesca%Colapietro%NULL%0, Antonio%Voza%NULL%0, Maurizio%Cecconi%NULL%0, Antonio%Messina%NULL%0, Paolo%Omodei%NULL%0, Claudio%Angelini%NULL%0, Michele%Ciccarelli%NULL%0, Salvatore%Badalamenti%NULL%0, G. Walter%Canonica%NULL%0, Ana%Lleo%ana.lleo@humanitas.it%0, Alessio%Aghemo%NULL%0, Alessio%Aghemo%NULL%0, NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Takahisa%Mikami%NULL%0, Hirotaka%Miyashita%NULL%0, Takayuki%Yamada%NULL%0, Matthew%Harrington%NULL%0, Daniel%Steinberg%NULL%0, Andrew%Dunn%NULL%0, Evan%Siau%Evan.Siau@mountsinai.org%0]</t>
+  </si>
+  <si>
+    <t>[Alexis K.%Okoh%alexis.okoh@rwjbh.org%0, Christoph%Sossou%NULL%0, Christoph%Sossou%NULL%0, Neha S.%Dangayach%NULL%0, Sherin%Meledathu%NULL%0, Oluwakemi%Phillips%NULL%0, Corinne%Raczek%NULL%0, Michael%Patti%NULL%0, Nathan%Kang%NULL%0, Sameer A.%Hirji%NULL%0, Charles%Cathcart%NULL%0, Christian%Engell%NULL%0, Marc%Cohen%NULL%0, Sandhya%Nagarakanti%NULL%0, Eliahu%Bishburg%NULL%0, Harpreet S.%Grewal%NULL%0]</t>
   </si>
 </sst>
 </file>
@@ -6181,10 +6901,10 @@
         <v>71</v>
       </c>
       <c r="D2" t="s">
-        <v>72</v>
+        <v>1761</v>
       </c>
       <c r="E2" t="s">
-        <v>1606</v>
+        <v>1762</v>
       </c>
       <c r="F2" t="s">
         <v>73</v>
@@ -6196,10 +6916,10 @@
         <v>75</v>
       </c>
       <c r="I2" t="s">
-        <v>1157</v>
+        <v>82</v>
       </c>
       <c r="J2" t="s">
-        <v>82</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
@@ -6210,25 +6930,25 @@
         <v>43977</v>
       </c>
       <c r="C3" t="s">
-        <v>259</v>
+        <v>63</v>
       </c>
       <c r="D3" t="s">
-        <v>260</v>
+        <v>64</v>
       </c>
       <c r="E3" t="s">
-        <v>1607</v>
+        <v>67</v>
       </c>
       <c r="F3" t="s">
-        <v>3</v>
+        <v>68</v>
       </c>
       <c r="G3" t="s">
-        <v>325</v>
+        <v>69</v>
       </c>
       <c r="H3" t="s">
         <v>76</v>
       </c>
       <c r="I3" t="s">
-        <v>1159</v>
+        <v>82</v>
       </c>
       <c r="J3" t="s">
         <v>82</v>
@@ -6248,7 +6968,7 @@
         <v>78</v>
       </c>
       <c r="E4" t="s">
-        <v>1608</v>
+        <v>1764</v>
       </c>
       <c r="F4" t="s">
         <v>79</v>
@@ -6260,10 +6980,10 @@
         <v>80</v>
       </c>
       <c r="I4" t="s">
-        <v>1157</v>
+        <v>82</v>
       </c>
       <c r="J4" t="s">
-        <v>82</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
@@ -6280,7 +7000,7 @@
         <v>82</v>
       </c>
       <c r="E5" t="s">
-        <v>1609</v>
+        <v>1766</v>
       </c>
       <c r="F5" t="s">
         <v>83</v>
@@ -6292,10 +7012,10 @@
         <v>84</v>
       </c>
       <c r="I5" t="s">
-        <v>1162</v>
+        <v>82</v>
       </c>
       <c r="J5" t="s">
-        <v>82</v>
+        <v>1767</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
@@ -6309,10 +7029,10 @@
         <v>85</v>
       </c>
       <c r="D6" t="s">
-        <v>86</v>
+        <v>1768</v>
       </c>
       <c r="E6" t="s">
-        <v>1610</v>
+        <v>1769</v>
       </c>
       <c r="F6" t="s">
         <v>87</v>
@@ -6324,10 +7044,10 @@
         <v>88</v>
       </c>
       <c r="I6" t="s">
-        <v>1157</v>
+        <v>82</v>
       </c>
       <c r="J6" t="s">
-        <v>82</v>
+        <v>1770</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
@@ -6338,28 +7058,28 @@
         <v>44136</v>
       </c>
       <c r="C7" t="s">
-        <v>1164</v>
+        <v>63</v>
       </c>
       <c r="D7" t="s">
         <v>64</v>
       </c>
       <c r="E7" t="s">
-        <v>1611</v>
+        <v>67</v>
       </c>
       <c r="F7" t="s">
-        <v>7</v>
+        <v>68</v>
       </c>
       <c r="G7" t="s">
-        <v>590</v>
+        <v>69</v>
       </c>
       <c r="H7" t="s">
-        <v>1166</v>
+        <v>76</v>
       </c>
       <c r="I7" t="s">
         <v>82</v>
       </c>
       <c r="J7" t="s">
-        <v>1280</v>
+        <v>82</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
@@ -6376,7 +7096,7 @@
         <v>90</v>
       </c>
       <c r="E8" t="s">
-        <v>1612</v>
+        <v>1771</v>
       </c>
       <c r="F8" t="s">
         <v>91</v>
@@ -6388,10 +7108,10 @@
         <v>92</v>
       </c>
       <c r="I8" t="s">
-        <v>1168</v>
+        <v>82</v>
       </c>
       <c r="J8" t="s">
-        <v>82</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
@@ -6408,7 +7128,7 @@
         <v>94</v>
       </c>
       <c r="E9" t="s">
-        <v>1613</v>
+        <v>1773</v>
       </c>
       <c r="F9" t="s">
         <v>95</v>
@@ -6420,10 +7140,10 @@
         <v>96</v>
       </c>
       <c r="I9" t="s">
-        <v>1157</v>
+        <v>82</v>
       </c>
       <c r="J9" t="s">
-        <v>82</v>
+        <v>1774</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
@@ -6437,10 +7157,10 @@
         <v>97</v>
       </c>
       <c r="D10" t="s">
-        <v>98</v>
+        <v>1775</v>
       </c>
       <c r="E10" t="s">
-        <v>1614</v>
+        <v>1776</v>
       </c>
       <c r="F10" t="s">
         <v>99</v>
@@ -6452,10 +7172,10 @@
         <v>100</v>
       </c>
       <c r="I10" t="s">
-        <v>1157</v>
+        <v>82</v>
       </c>
       <c r="J10" t="s">
-        <v>82</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
@@ -6472,7 +7192,7 @@
         <v>102</v>
       </c>
       <c r="E11" t="s">
-        <v>1615</v>
+        <v>1778</v>
       </c>
       <c r="F11" t="s">
         <v>103</v>
@@ -6484,10 +7204,10 @@
         <v>104</v>
       </c>
       <c r="I11" t="s">
-        <v>1157</v>
+        <v>82</v>
       </c>
       <c r="J11" t="s">
-        <v>82</v>
+        <v>1779</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
@@ -6504,7 +7224,7 @@
         <v>106</v>
       </c>
       <c r="E12" t="s">
-        <v>1616</v>
+        <v>1780</v>
       </c>
       <c r="F12" t="s">
         <v>107</v>
@@ -6516,10 +7236,10 @@
         <v>76</v>
       </c>
       <c r="I12" t="s">
-        <v>1157</v>
+        <v>82</v>
       </c>
       <c r="J12" t="s">
-        <v>82</v>
+        <v>1774</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
@@ -6536,7 +7256,7 @@
         <v>109</v>
       </c>
       <c r="E13" t="s">
-        <v>1617</v>
+        <v>1781</v>
       </c>
       <c r="F13" t="s">
         <v>110</v>
@@ -6548,10 +7268,10 @@
         <v>111</v>
       </c>
       <c r="I13" t="s">
-        <v>1168</v>
+        <v>82</v>
       </c>
       <c r="J13" t="s">
-        <v>82</v>
+        <v>1782</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
@@ -6565,10 +7285,10 @@
         <v>112</v>
       </c>
       <c r="D14" t="s">
-        <v>113</v>
+        <v>1783</v>
       </c>
       <c r="E14" t="s">
-        <v>1618</v>
+        <v>1784</v>
       </c>
       <c r="F14" t="s">
         <v>114</v>
@@ -6580,10 +7300,10 @@
         <v>115</v>
       </c>
       <c r="I14" t="s">
-        <v>1157</v>
+        <v>82</v>
       </c>
       <c r="J14" t="s">
-        <v>82</v>
+        <v>1770</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
@@ -6597,10 +7317,10 @@
         <v>116</v>
       </c>
       <c r="D15" t="s">
-        <v>776</v>
+        <v>117</v>
       </c>
       <c r="E15" t="s">
-        <v>1619</v>
+        <v>1785</v>
       </c>
       <c r="F15" t="s">
         <v>118</v>
@@ -6612,10 +7332,10 @@
         <v>119</v>
       </c>
       <c r="I15" t="s">
-        <v>1162</v>
+        <v>82</v>
       </c>
       <c r="J15" t="s">
-        <v>82</v>
+        <v>1786</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
@@ -6632,7 +7352,7 @@
         <v>121</v>
       </c>
       <c r="E16" t="s">
-        <v>1620</v>
+        <v>1787</v>
       </c>
       <c r="F16" t="s">
         <v>122</v>
@@ -6644,10 +7364,10 @@
         <v>104</v>
       </c>
       <c r="I16" t="s">
-        <v>1168</v>
+        <v>82</v>
       </c>
       <c r="J16" t="s">
-        <v>82</v>
+        <v>1788</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
@@ -6661,10 +7381,10 @@
         <v>123</v>
       </c>
       <c r="D17" t="s">
-        <v>779</v>
+        <v>124</v>
       </c>
       <c r="E17" t="s">
-        <v>1621</v>
+        <v>1789</v>
       </c>
       <c r="F17" t="s">
         <v>125</v>
@@ -6676,10 +7396,10 @@
         <v>126</v>
       </c>
       <c r="I17" t="s">
-        <v>1162</v>
+        <v>82</v>
       </c>
       <c r="J17" t="s">
-        <v>82</v>
+        <v>1786</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
@@ -6696,7 +7416,7 @@
         <v>128</v>
       </c>
       <c r="E18" t="s">
-        <v>1622</v>
+        <v>1790</v>
       </c>
       <c r="F18" t="s">
         <v>129</v>
@@ -6708,10 +7428,10 @@
         <v>76</v>
       </c>
       <c r="I18" t="s">
-        <v>1168</v>
+        <v>82</v>
       </c>
       <c r="J18" t="s">
-        <v>82</v>
+        <v>1791</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
@@ -6728,7 +7448,7 @@
         <v>131</v>
       </c>
       <c r="E19" t="s">
-        <v>1623</v>
+        <v>1792</v>
       </c>
       <c r="F19" t="s">
         <v>132</v>
@@ -6740,10 +7460,10 @@
         <v>76</v>
       </c>
       <c r="I19" t="s">
-        <v>1168</v>
+        <v>82</v>
       </c>
       <c r="J19" t="s">
-        <v>82</v>
+        <v>1793</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
@@ -6757,10 +7477,10 @@
         <v>133</v>
       </c>
       <c r="D20" t="s">
-        <v>134</v>
+        <v>1794</v>
       </c>
       <c r="E20" t="s">
-        <v>1624</v>
+        <v>1795</v>
       </c>
       <c r="F20" t="s">
         <v>135</v>
@@ -6772,10 +7492,10 @@
         <v>100</v>
       </c>
       <c r="I20" t="s">
-        <v>1157</v>
+        <v>82</v>
       </c>
       <c r="J20" t="s">
-        <v>82</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
@@ -6792,7 +7512,7 @@
         <v>137</v>
       </c>
       <c r="E21" t="s">
-        <v>1625</v>
+        <v>1797</v>
       </c>
       <c r="F21" t="s">
         <v>138</v>
@@ -6804,10 +7524,10 @@
         <v>139</v>
       </c>
       <c r="I21" t="s">
-        <v>266</v>
+        <v>82</v>
       </c>
       <c r="J21" t="s">
-        <v>82</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
@@ -6824,7 +7544,7 @@
         <v>141</v>
       </c>
       <c r="E22" t="s">
-        <v>1626</v>
+        <v>1799</v>
       </c>
       <c r="F22" t="s">
         <v>142</v>
@@ -6836,10 +7556,10 @@
         <v>76</v>
       </c>
       <c r="I22" t="s">
-        <v>1168</v>
+        <v>82</v>
       </c>
       <c r="J22" t="s">
-        <v>82</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
@@ -6850,25 +7570,25 @@
         <v>44007</v>
       </c>
       <c r="C23" t="s">
-        <v>262</v>
+        <v>63</v>
       </c>
       <c r="D23" t="s">
-        <v>263</v>
+        <v>64</v>
       </c>
       <c r="E23" t="s">
-        <v>1627</v>
+        <v>67</v>
       </c>
       <c r="F23" t="s">
-        <v>23</v>
+        <v>68</v>
       </c>
       <c r="G23" t="s">
-        <v>325</v>
+        <v>69</v>
       </c>
       <c r="H23" t="s">
         <v>76</v>
       </c>
       <c r="I23" t="s">
-        <v>1159</v>
+        <v>82</v>
       </c>
       <c r="J23" t="s">
         <v>82</v>
@@ -6885,10 +7605,10 @@
         <v>143</v>
       </c>
       <c r="D24" t="s">
-        <v>144</v>
+        <v>1801</v>
       </c>
       <c r="E24" t="s">
-        <v>1628</v>
+        <v>1802</v>
       </c>
       <c r="F24" t="s">
         <v>145</v>
@@ -6900,10 +7620,10 @@
         <v>75</v>
       </c>
       <c r="I24" t="s">
-        <v>1168</v>
+        <v>82</v>
       </c>
       <c r="J24" t="s">
-        <v>82</v>
+        <v>1803</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
@@ -6917,10 +7637,10 @@
         <v>146</v>
       </c>
       <c r="D25" t="s">
-        <v>147</v>
+        <v>1804</v>
       </c>
       <c r="E25" t="s">
-        <v>1629</v>
+        <v>1805</v>
       </c>
       <c r="F25" t="s">
         <v>148</v>
@@ -6932,10 +7652,10 @@
         <v>149</v>
       </c>
       <c r="I25" t="s">
-        <v>1157</v>
+        <v>82</v>
       </c>
       <c r="J25" t="s">
-        <v>82</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
@@ -6949,10 +7669,10 @@
         <v>150</v>
       </c>
       <c r="D26" t="s">
-        <v>789</v>
+        <v>151</v>
       </c>
       <c r="E26" t="s">
-        <v>1630</v>
+        <v>1806</v>
       </c>
       <c r="F26" t="s">
         <v>152</v>
@@ -6964,10 +7684,10 @@
         <v>153</v>
       </c>
       <c r="I26" t="s">
-        <v>1162</v>
+        <v>82</v>
       </c>
       <c r="J26" t="s">
-        <v>82</v>
+        <v>1786</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
@@ -6984,7 +7704,7 @@
         <v>155</v>
       </c>
       <c r="E27" t="s">
-        <v>1631</v>
+        <v>1807</v>
       </c>
       <c r="F27" t="s">
         <v>156</v>
@@ -6996,10 +7716,10 @@
         <v>76</v>
       </c>
       <c r="I27" t="s">
-        <v>1157</v>
+        <v>82</v>
       </c>
       <c r="J27" t="s">
-        <v>82</v>
+        <v>1774</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
@@ -7016,7 +7736,7 @@
         <v>158</v>
       </c>
       <c r="E28" t="s">
-        <v>1632</v>
+        <v>1808</v>
       </c>
       <c r="F28" t="s">
         <v>159</v>
@@ -7028,10 +7748,10 @@
         <v>160</v>
       </c>
       <c r="I28" t="s">
-        <v>1168</v>
+        <v>82</v>
       </c>
       <c r="J28" t="s">
-        <v>82</v>
+        <v>1809</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
@@ -7048,7 +7768,7 @@
         <v>82</v>
       </c>
       <c r="E29" t="s">
-        <v>1633</v>
+        <v>1810</v>
       </c>
       <c r="F29" t="s">
         <v>162</v>
@@ -7060,10 +7780,10 @@
         <v>163</v>
       </c>
       <c r="I29" t="s">
-        <v>1157</v>
+        <v>82</v>
       </c>
       <c r="J29" t="s">
-        <v>82</v>
+        <v>1770</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
@@ -7080,7 +7800,7 @@
         <v>165</v>
       </c>
       <c r="E30" t="s">
-        <v>1634</v>
+        <v>1811</v>
       </c>
       <c r="F30" t="s">
         <v>166</v>
@@ -7092,10 +7812,10 @@
         <v>75</v>
       </c>
       <c r="I30" t="s">
-        <v>1168</v>
+        <v>82</v>
       </c>
       <c r="J30" t="s">
-        <v>82</v>
+        <v>1812</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
@@ -7112,7 +7832,7 @@
         <v>168</v>
       </c>
       <c r="E31" t="s">
-        <v>1635</v>
+        <v>1813</v>
       </c>
       <c r="F31" t="s">
         <v>169</v>
@@ -7124,10 +7844,10 @@
         <v>170</v>
       </c>
       <c r="I31" t="s">
-        <v>1157</v>
+        <v>82</v>
       </c>
       <c r="J31" t="s">
-        <v>82</v>
+        <v>1814</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
@@ -7141,10 +7861,10 @@
         <v>171</v>
       </c>
       <c r="D32" t="s">
-        <v>172</v>
+        <v>1815</v>
       </c>
       <c r="E32" t="s">
-        <v>1636</v>
+        <v>1816</v>
       </c>
       <c r="F32" t="s">
         <v>173</v>
@@ -7156,10 +7876,10 @@
         <v>174</v>
       </c>
       <c r="I32" t="s">
-        <v>1168</v>
+        <v>82</v>
       </c>
       <c r="J32" t="s">
-        <v>82</v>
+        <v>1817</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
@@ -7176,7 +7896,7 @@
         <v>176</v>
       </c>
       <c r="E33" t="s">
-        <v>1637</v>
+        <v>1818</v>
       </c>
       <c r="F33" t="s">
         <v>177</v>
@@ -7188,10 +7908,10 @@
         <v>178</v>
       </c>
       <c r="I33" t="s">
-        <v>1168</v>
+        <v>82</v>
       </c>
       <c r="J33" t="s">
-        <v>82</v>
+        <v>1819</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
@@ -7208,7 +7928,7 @@
         <v>180</v>
       </c>
       <c r="E34" t="s">
-        <v>1638</v>
+        <v>1820</v>
       </c>
       <c r="F34" t="s">
         <v>181</v>
@@ -7220,10 +7940,10 @@
         <v>76</v>
       </c>
       <c r="I34" t="s">
-        <v>1157</v>
+        <v>82</v>
       </c>
       <c r="J34" t="s">
-        <v>82</v>
+        <v>1821</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
@@ -7240,7 +7960,7 @@
         <v>183</v>
       </c>
       <c r="E35" t="s">
-        <v>1639</v>
+        <v>1822</v>
       </c>
       <c r="F35" t="s">
         <v>184</v>
@@ -7252,10 +7972,10 @@
         <v>185</v>
       </c>
       <c r="I35" t="s">
-        <v>1157</v>
+        <v>82</v>
       </c>
       <c r="J35" t="s">
-        <v>82</v>
+        <v>1823</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
@@ -7269,10 +7989,10 @@
         <v>186</v>
       </c>
       <c r="D36" t="s">
-        <v>187</v>
+        <v>1824</v>
       </c>
       <c r="E36" t="s">
-        <v>1640</v>
+        <v>1825</v>
       </c>
       <c r="F36" t="s">
         <v>188</v>
@@ -7284,10 +8004,10 @@
         <v>189</v>
       </c>
       <c r="I36" t="s">
-        <v>1157</v>
+        <v>82</v>
       </c>
       <c r="J36" t="s">
-        <v>82</v>
+        <v>1826</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
@@ -7304,7 +8024,7 @@
         <v>191</v>
       </c>
       <c r="E37" t="s">
-        <v>1641</v>
+        <v>1827</v>
       </c>
       <c r="F37" t="s">
         <v>192</v>
@@ -7316,10 +8036,10 @@
         <v>126</v>
       </c>
       <c r="I37" t="s">
-        <v>1168</v>
+        <v>82</v>
       </c>
       <c r="J37" t="s">
-        <v>82</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.2">
@@ -7336,7 +8056,7 @@
         <v>194</v>
       </c>
       <c r="E38" t="s">
-        <v>1642</v>
+        <v>1828</v>
       </c>
       <c r="F38" t="s">
         <v>195</v>
@@ -7348,10 +8068,10 @@
         <v>76</v>
       </c>
       <c r="I38" t="s">
-        <v>1168</v>
+        <v>82</v>
       </c>
       <c r="J38" t="s">
-        <v>82</v>
+        <v>1829</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.2">
@@ -7365,10 +8085,10 @@
         <v>196</v>
       </c>
       <c r="D39" t="s">
-        <v>197</v>
+        <v>1830</v>
       </c>
       <c r="E39" t="s">
-        <v>1643</v>
+        <v>1831</v>
       </c>
       <c r="F39" t="s">
         <v>198</v>
@@ -7380,10 +8100,10 @@
         <v>199</v>
       </c>
       <c r="I39" t="s">
-        <v>1157</v>
+        <v>82</v>
       </c>
       <c r="J39" t="s">
-        <v>82</v>
+        <v>1770</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.2">
@@ -7394,25 +8114,25 @@
         <v>44228</v>
       </c>
       <c r="C40" t="s">
-        <v>264</v>
+        <v>63</v>
       </c>
       <c r="D40" t="s">
         <v>64</v>
       </c>
       <c r="E40" t="s">
-        <v>1644</v>
+        <v>67</v>
       </c>
       <c r="F40" t="s">
-        <v>41</v>
+        <v>68</v>
       </c>
       <c r="G40" t="s">
-        <v>325</v>
+        <v>69</v>
       </c>
       <c r="H40" t="s">
         <v>76</v>
       </c>
       <c r="I40" t="s">
-        <v>1159</v>
+        <v>82</v>
       </c>
       <c r="J40" t="s">
         <v>82</v>
@@ -7432,7 +8152,7 @@
         <v>201</v>
       </c>
       <c r="E41" t="s">
-        <v>1645</v>
+        <v>1832</v>
       </c>
       <c r="F41" t="s">
         <v>202</v>
@@ -7444,10 +8164,10 @@
         <v>104</v>
       </c>
       <c r="I41" t="s">
-        <v>1157</v>
+        <v>82</v>
       </c>
       <c r="J41" t="s">
-        <v>82</v>
+        <v>1770</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.2">
@@ -7461,10 +8181,10 @@
         <v>203</v>
       </c>
       <c r="D42" t="s">
-        <v>204</v>
+        <v>1833</v>
       </c>
       <c r="E42" t="s">
-        <v>1646</v>
+        <v>1834</v>
       </c>
       <c r="F42" t="s">
         <v>205</v>
@@ -7476,10 +8196,10 @@
         <v>206</v>
       </c>
       <c r="I42" t="s">
-        <v>1157</v>
+        <v>82</v>
       </c>
       <c r="J42" t="s">
-        <v>82</v>
+        <v>1770</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.2">
@@ -7493,10 +8213,10 @@
         <v>207</v>
       </c>
       <c r="D43" t="s">
-        <v>807</v>
+        <v>208</v>
       </c>
       <c r="E43" t="s">
-        <v>1647</v>
+        <v>1835</v>
       </c>
       <c r="F43" t="s">
         <v>209</v>
@@ -7508,10 +8228,10 @@
         <v>210</v>
       </c>
       <c r="I43" t="s">
-        <v>1162</v>
+        <v>82</v>
       </c>
       <c r="J43" t="s">
-        <v>82</v>
+        <v>1836</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.2">
@@ -7528,7 +8248,7 @@
         <v>82</v>
       </c>
       <c r="E44" t="s">
-        <v>1648</v>
+        <v>1837</v>
       </c>
       <c r="F44" t="s">
         <v>212</v>
@@ -7540,10 +8260,10 @@
         <v>213</v>
       </c>
       <c r="I44" t="s">
-        <v>1168</v>
+        <v>82</v>
       </c>
       <c r="J44" t="s">
-        <v>82</v>
+        <v>1782</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.2">
@@ -7560,7 +8280,7 @@
         <v>215</v>
       </c>
       <c r="E45" t="s">
-        <v>1649</v>
+        <v>1838</v>
       </c>
       <c r="F45" t="s">
         <v>216</v>
@@ -7572,10 +8292,10 @@
         <v>217</v>
       </c>
       <c r="I45" t="s">
-        <v>1157</v>
+        <v>82</v>
       </c>
       <c r="J45" t="s">
-        <v>82</v>
+        <v>1770</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.2">
@@ -7592,7 +8312,7 @@
         <v>82</v>
       </c>
       <c r="E46" t="s">
-        <v>1650</v>
+        <v>1839</v>
       </c>
       <c r="F46" t="s">
         <v>219</v>
@@ -7604,10 +8324,10 @@
         <v>220</v>
       </c>
       <c r="I46" t="s">
-        <v>1168</v>
+        <v>82</v>
       </c>
       <c r="J46" t="s">
-        <v>82</v>
+        <v>1840</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.2">
@@ -7636,10 +8356,10 @@
         <v>185</v>
       </c>
       <c r="I47" t="s">
-        <v>1157</v>
+        <v>82</v>
       </c>
       <c r="J47" t="s">
-        <v>82</v>
+        <v>1770</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.2">
@@ -7650,25 +8370,25 @@
         <v>43831</v>
       </c>
       <c r="C48" t="s">
-        <v>224</v>
+        <v>63</v>
       </c>
       <c r="D48" t="s">
-        <v>752</v>
+        <v>64</v>
       </c>
       <c r="E48" t="s">
-        <v>1651</v>
+        <v>67</v>
       </c>
       <c r="F48" t="s">
-        <v>49</v>
+        <v>68</v>
       </c>
       <c r="G48" t="s">
-        <v>226</v>
+        <v>69</v>
       </c>
       <c r="H48" t="s">
-        <v>227</v>
+        <v>76</v>
       </c>
       <c r="I48" t="s">
-        <v>1159</v>
+        <v>82</v>
       </c>
       <c r="J48" t="s">
         <v>82</v>
@@ -7688,7 +8408,7 @@
         <v>82</v>
       </c>
       <c r="E49" t="s">
-        <v>1652</v>
+        <v>1841</v>
       </c>
       <c r="F49" t="s">
         <v>229</v>
@@ -7700,10 +8420,10 @@
         <v>76</v>
       </c>
       <c r="I49" t="s">
-        <v>1168</v>
+        <v>82</v>
       </c>
       <c r="J49" t="s">
-        <v>82</v>
+        <v>1842</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.2">
@@ -7717,10 +8437,10 @@
         <v>230</v>
       </c>
       <c r="D50" t="s">
-        <v>231</v>
+        <v>1843</v>
       </c>
       <c r="E50" t="s">
-        <v>1653</v>
+        <v>1844</v>
       </c>
       <c r="F50" t="s">
         <v>232</v>
@@ -7732,10 +8452,10 @@
         <v>233</v>
       </c>
       <c r="I50" t="s">
-        <v>1157</v>
+        <v>82</v>
       </c>
       <c r="J50" t="s">
-        <v>82</v>
+        <v>1845</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.2">
@@ -7752,7 +8472,7 @@
         <v>235</v>
       </c>
       <c r="E51" t="s">
-        <v>1654</v>
+        <v>1846</v>
       </c>
       <c r="F51" t="s">
         <v>236</v>
@@ -7764,10 +8484,10 @@
         <v>237</v>
       </c>
       <c r="I51" t="s">
-        <v>1157</v>
+        <v>82</v>
       </c>
       <c r="J51" t="s">
-        <v>82</v>
+        <v>1847</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.2">
@@ -7778,28 +8498,28 @@
         <v>44021</v>
       </c>
       <c r="C52" t="s">
-        <v>588</v>
+        <v>63</v>
       </c>
       <c r="D52" t="s">
         <v>64</v>
       </c>
       <c r="E52" t="s">
-        <v>929</v>
+        <v>67</v>
       </c>
       <c r="F52" t="s">
-        <v>53</v>
+        <v>68</v>
       </c>
       <c r="G52" t="s">
-        <v>590</v>
+        <v>69</v>
       </c>
       <c r="H52" t="s">
-        <v>1324</v>
+        <v>76</v>
       </c>
       <c r="I52" t="s">
         <v>82</v>
       </c>
       <c r="J52" t="s">
-        <v>1325</v>
+        <v>82</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.2">
@@ -7816,7 +8536,7 @@
         <v>239</v>
       </c>
       <c r="E53" t="s">
-        <v>1655</v>
+        <v>1848</v>
       </c>
       <c r="F53" t="s">
         <v>240</v>
@@ -7828,10 +8548,10 @@
         <v>76</v>
       </c>
       <c r="I53" t="s">
-        <v>1157</v>
+        <v>82</v>
       </c>
       <c r="J53" t="s">
-        <v>82</v>
+        <v>1774</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.2">
@@ -7845,10 +8565,10 @@
         <v>241</v>
       </c>
       <c r="D54" t="s">
-        <v>818</v>
+        <v>242</v>
       </c>
       <c r="E54" t="s">
-        <v>1656</v>
+        <v>1849</v>
       </c>
       <c r="F54" t="s">
         <v>243</v>
@@ -7860,10 +8580,10 @@
         <v>244</v>
       </c>
       <c r="I54" t="s">
-        <v>1162</v>
+        <v>82</v>
       </c>
       <c r="J54" t="s">
-        <v>82</v>
+        <v>1850</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.2">
@@ -7877,10 +8597,10 @@
         <v>245</v>
       </c>
       <c r="D55" t="s">
-        <v>246</v>
+        <v>1851</v>
       </c>
       <c r="E55" t="s">
-        <v>1657</v>
+        <v>1852</v>
       </c>
       <c r="F55" t="s">
         <v>247</v>
@@ -7892,10 +8612,10 @@
         <v>126</v>
       </c>
       <c r="I55" t="s">
-        <v>1157</v>
+        <v>82</v>
       </c>
       <c r="J55" t="s">
-        <v>82</v>
+        <v>1853</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.2">
@@ -7912,7 +8632,7 @@
         <v>249</v>
       </c>
       <c r="E56" t="s">
-        <v>1658</v>
+        <v>1854</v>
       </c>
       <c r="F56" t="s">
         <v>250</v>
@@ -7924,10 +8644,10 @@
         <v>251</v>
       </c>
       <c r="I56" t="s">
-        <v>1157</v>
+        <v>82</v>
       </c>
       <c r="J56" t="s">
-        <v>82</v>
+        <v>1770</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.2">
@@ -7941,10 +8661,10 @@
         <v>252</v>
       </c>
       <c r="D57" t="s">
-        <v>822</v>
+        <v>253</v>
       </c>
       <c r="E57" t="s">
-        <v>1659</v>
+        <v>1855</v>
       </c>
       <c r="F57" t="s">
         <v>254</v>
@@ -7956,10 +8676,10 @@
         <v>153</v>
       </c>
       <c r="I57" t="s">
-        <v>1162</v>
+        <v>82</v>
       </c>
       <c r="J57" t="s">
-        <v>82</v>
+        <v>1836</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.2">
@@ -7973,10 +8693,10 @@
         <v>255</v>
       </c>
       <c r="D58" t="s">
-        <v>824</v>
+        <v>256</v>
       </c>
       <c r="E58" t="s">
-        <v>1660</v>
+        <v>1856</v>
       </c>
       <c r="F58" t="s">
         <v>257</v>
@@ -7988,10 +8708,10 @@
         <v>258</v>
       </c>
       <c r="I58" t="s">
-        <v>1162</v>
+        <v>82</v>
       </c>
       <c r="J58" t="s">
-        <v>82</v>
+        <v>1786</v>
       </c>
     </row>
   </sheetData>
